--- a/Excel Sheets/Task_8_and_9.xlsx
+++ b/Excel Sheets/Task_8_and_9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Task_MP8_MP9" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="15">
   <si>
     <t>Keypoint Detector</t>
   </si>
@@ -46,9 +46,6 @@
     <t>FREAK</t>
   </si>
   <si>
-    <t>SIFT</t>
-  </si>
-  <si>
     <t>HARRIS</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>AKAZE</t>
+  </si>
+  <si>
+    <t>SIFT</t>
   </si>
 </sst>
 </file>
@@ -70,6 +70,7 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -117,10 +118,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -137,6 +138,200 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4285F4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="EA4335"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="FBBC04"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="34A853"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF6D01"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="46BDC6"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="1155CC"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="1155CC"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -147,8 +342,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.86"/>
+    <col customWidth="1" min="1" max="1" width="19.29"/>
     <col customWidth="1" min="2" max="2" width="18.43"/>
+    <col customWidth="1" min="3" max="3" width="23.14"/>
+    <col customWidth="1" min="4" max="4" width="18.71"/>
+    <col customWidth="1" min="5" max="5" width="20.29"/>
+    <col customWidth="1" min="6" max="6" width="15.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -182,13 +381,13 @@
         <v>95.0</v>
       </c>
       <c r="D2" s="3">
-        <v>7.29861</v>
+        <v>17.77</v>
       </c>
       <c r="E2" s="3">
-        <v>0.315052</v>
+        <v>3.94752</v>
       </c>
       <c r="F2" s="3">
-        <v>7.61366</v>
+        <v>21.7175</v>
       </c>
     </row>
     <row r="3">
@@ -202,13 +401,13 @@
         <v>88.0</v>
       </c>
       <c r="D3" s="3">
-        <v>7.08769</v>
+        <v>18.805</v>
       </c>
       <c r="E3" s="3">
-        <v>0.24613</v>
+        <v>0.406398</v>
       </c>
       <c r="F3" s="3">
-        <v>7.33382</v>
+        <v>19.2114</v>
       </c>
     </row>
     <row r="4">
@@ -222,13 +421,13 @@
         <v>80.0</v>
       </c>
       <c r="D4" s="3">
-        <v>7.06012</v>
+        <v>16.7663</v>
       </c>
       <c r="E4" s="3">
-        <v>0.251525</v>
+        <v>0.438428</v>
       </c>
       <c r="F4" s="3">
-        <v>7.31165</v>
+        <v>17.2048</v>
       </c>
     </row>
     <row r="5">
@@ -242,13 +441,13 @@
         <v>90.0</v>
       </c>
       <c r="D5" s="3">
-        <v>7.25117</v>
+        <v>17.1345</v>
       </c>
       <c r="E5" s="3">
-        <v>0.255339</v>
+        <v>0.388685</v>
       </c>
       <c r="F5" s="3">
-        <v>7.5065</v>
+        <v>17.5232</v>
       </c>
     </row>
     <row r="6">
@@ -262,13 +461,13 @@
         <v>82.0</v>
       </c>
       <c r="D6" s="3">
-        <v>7.84816</v>
+        <v>17.5966</v>
       </c>
       <c r="E6" s="3">
-        <v>0.252981</v>
+        <v>0.376111</v>
       </c>
       <c r="F6" s="3">
-        <v>8.10114</v>
+        <v>17.9727</v>
       </c>
     </row>
     <row r="7">
@@ -282,13 +481,13 @@
         <v>79.0</v>
       </c>
       <c r="D7" s="3">
-        <v>7.3276</v>
+        <v>15.7481</v>
       </c>
       <c r="E7" s="3">
-        <v>0.24328</v>
+        <v>0.542447</v>
       </c>
       <c r="F7" s="3">
-        <v>7.57088</v>
+        <v>16.2906</v>
       </c>
     </row>
     <row r="8">
@@ -302,13 +501,13 @@
         <v>85.0</v>
       </c>
       <c r="D8" s="3">
-        <v>9.05021</v>
+        <v>18.9618</v>
       </c>
       <c r="E8" s="3">
-        <v>0.25114</v>
+        <v>0.364107</v>
       </c>
       <c r="F8" s="3">
-        <v>9.30135</v>
+        <v>19.326</v>
       </c>
     </row>
     <row r="9">
@@ -322,13 +521,13 @@
         <v>86.0</v>
       </c>
       <c r="D9" s="3">
-        <v>6.78779</v>
+        <v>23.7534</v>
       </c>
       <c r="E9" s="3">
-        <v>0.25004</v>
+        <v>0.408616</v>
       </c>
       <c r="F9" s="3">
-        <v>7.03783</v>
+        <v>24.162</v>
       </c>
     </row>
     <row r="10">
@@ -342,13 +541,13 @@
         <v>82.0</v>
       </c>
       <c r="D10" s="3">
-        <v>7.13392</v>
+        <v>18.5414</v>
       </c>
       <c r="E10" s="3">
-        <v>0.256542</v>
+        <v>0.424956</v>
       </c>
       <c r="F10" s="3">
-        <v>7.39046</v>
+        <v>18.9664</v>
       </c>
     </row>
     <row r="11">
@@ -362,13 +561,13 @@
         <v>115.0</v>
       </c>
       <c r="D11" s="3">
-        <v>7.90104</v>
+        <v>20.6552</v>
       </c>
       <c r="E11" s="3">
-        <v>0.276979</v>
+        <v>0.377501</v>
       </c>
       <c r="F11" s="3">
-        <v>8.17802</v>
+        <v>21.0327</v>
       </c>
     </row>
     <row r="12">
@@ -382,13 +581,13 @@
         <v>111.0</v>
       </c>
       <c r="D12" s="3">
-        <v>7.21706</v>
+        <v>15.5593</v>
       </c>
       <c r="E12" s="3">
-        <v>0.215524</v>
+        <v>0.336013</v>
       </c>
       <c r="F12" s="3">
-        <v>7.43259</v>
+        <v>15.8953</v>
       </c>
     </row>
     <row r="13">
@@ -402,13 +601,13 @@
         <v>104.0</v>
       </c>
       <c r="D13" s="3">
-        <v>7.91097</v>
+        <v>18.4622</v>
       </c>
       <c r="E13" s="3">
-        <v>0.222916</v>
+        <v>0.319945</v>
       </c>
       <c r="F13" s="3">
-        <v>8.13389</v>
+        <v>18.7821</v>
       </c>
     </row>
     <row r="14">
@@ -422,13 +621,13 @@
         <v>101.0</v>
       </c>
       <c r="D14" s="3">
-        <v>7.17411</v>
+        <v>21.9529</v>
       </c>
       <c r="E14" s="3">
-        <v>0.260313</v>
+        <v>0.352215</v>
       </c>
       <c r="F14" s="3">
-        <v>7.43443</v>
+        <v>22.3051</v>
       </c>
     </row>
     <row r="15">
@@ -442,13 +641,13 @@
         <v>102.0</v>
       </c>
       <c r="D15" s="3">
-        <v>8.31931</v>
+        <v>16.5205</v>
       </c>
       <c r="E15" s="3">
-        <v>0.287081</v>
+        <v>0.353113</v>
       </c>
       <c r="F15" s="3">
-        <v>8.60639</v>
+        <v>16.8736</v>
       </c>
     </row>
     <row r="16">
@@ -462,13 +661,13 @@
         <v>102.0</v>
       </c>
       <c r="D16" s="3">
-        <v>9.08999</v>
+        <v>15.9029</v>
       </c>
       <c r="E16" s="3">
-        <v>0.208463</v>
+        <v>0.305886</v>
       </c>
       <c r="F16" s="3">
-        <v>9.29845</v>
+        <v>16.2087</v>
       </c>
     </row>
     <row r="17">
@@ -482,13 +681,13 @@
         <v>100.0</v>
       </c>
       <c r="D17" s="3">
-        <v>8.73489</v>
+        <v>18.7192</v>
       </c>
       <c r="E17" s="3">
-        <v>0.210987</v>
+        <v>0.325176</v>
       </c>
       <c r="F17" s="3">
-        <v>8.94587</v>
+        <v>19.0443</v>
       </c>
     </row>
     <row r="18">
@@ -502,13 +701,13 @@
         <v>109.0</v>
       </c>
       <c r="D18" s="3">
-        <v>7.83186</v>
+        <v>16.8072</v>
       </c>
       <c r="E18" s="3">
-        <v>0.254062</v>
+        <v>0.340129</v>
       </c>
       <c r="F18" s="3">
-        <v>8.08592</v>
+        <v>17.1474</v>
       </c>
     </row>
     <row r="19">
@@ -522,13 +721,13 @@
         <v>100.0</v>
       </c>
       <c r="D19" s="3">
-        <v>6.98068</v>
+        <v>20.7209</v>
       </c>
       <c r="E19" s="3">
-        <v>0.233552</v>
+        <v>0.302894</v>
       </c>
       <c r="F19" s="3">
-        <v>7.21423</v>
+        <v>21.0238</v>
       </c>
     </row>
     <row r="20">
@@ -542,13 +741,13 @@
         <v>106.0</v>
       </c>
       <c r="D20" s="3">
-        <v>7.06902</v>
+        <v>16.9538</v>
       </c>
       <c r="E20" s="3">
-        <v>0.280747</v>
+        <v>0.349816</v>
       </c>
       <c r="F20" s="3">
-        <v>7.34977</v>
+        <v>17.3037</v>
       </c>
     </row>
     <row r="21">
@@ -562,13 +761,13 @@
         <v>102.0</v>
       </c>
       <c r="D21" s="3">
-        <v>7.44238</v>
+        <v>16.1941</v>
       </c>
       <c r="E21" s="3">
-        <v>0.215531</v>
+        <v>0.350695</v>
       </c>
       <c r="F21" s="3">
-        <v>7.65791</v>
+        <v>16.5448</v>
       </c>
     </row>
     <row r="22">
@@ -582,13 +781,13 @@
         <v>99.0</v>
       </c>
       <c r="D22" s="3">
-        <v>10.139</v>
+        <v>23.4707</v>
       </c>
       <c r="E22" s="3">
-        <v>0.262283</v>
+        <v>0.370769</v>
       </c>
       <c r="F22" s="3">
-        <v>10.4013</v>
+        <v>23.8415</v>
       </c>
     </row>
     <row r="23">
@@ -602,13 +801,13 @@
         <v>102.0</v>
       </c>
       <c r="D23" s="3">
-        <v>6.97883</v>
+        <v>15.9338</v>
       </c>
       <c r="E23" s="3">
-        <v>0.224656</v>
+        <v>0.359608</v>
       </c>
       <c r="F23" s="3">
-        <v>7.20349</v>
+        <v>16.2934</v>
       </c>
     </row>
     <row r="24">
@@ -622,13 +821,13 @@
         <v>103.0</v>
       </c>
       <c r="D24" s="3">
-        <v>7.58027</v>
+        <v>16.7119</v>
       </c>
       <c r="E24" s="3">
-        <v>0.247771</v>
+        <v>0.346651</v>
       </c>
       <c r="F24" s="3">
-        <v>7.82804</v>
+        <v>17.0585</v>
       </c>
     </row>
     <row r="25">
@@ -642,13 +841,13 @@
         <v>97.0</v>
       </c>
       <c r="D25" s="3">
-        <v>8.21863</v>
+        <v>17.1902</v>
       </c>
       <c r="E25" s="3">
-        <v>0.263057</v>
+        <v>0.288011</v>
       </c>
       <c r="F25" s="3">
-        <v>8.48169</v>
+        <v>17.4782</v>
       </c>
     </row>
     <row r="26">
@@ -662,13 +861,13 @@
         <v>98.0</v>
       </c>
       <c r="D26" s="3">
-        <v>8.60552</v>
+        <v>20.7253</v>
       </c>
       <c r="E26" s="3">
-        <v>0.210435</v>
+        <v>0.299363</v>
       </c>
       <c r="F26" s="3">
-        <v>8.81596</v>
+        <v>21.0246</v>
       </c>
     </row>
     <row r="27">
@@ -682,13 +881,13 @@
         <v>104.0</v>
       </c>
       <c r="D27" s="3">
-        <v>7.77952</v>
+        <v>16.2047</v>
       </c>
       <c r="E27" s="3">
-        <v>0.209257</v>
+        <v>0.342663</v>
       </c>
       <c r="F27" s="3">
-        <v>7.98878</v>
+        <v>16.5473</v>
       </c>
     </row>
     <row r="28">
@@ -702,13 +901,13 @@
         <v>97.0</v>
       </c>
       <c r="D28" s="3">
-        <v>7.84978</v>
+        <v>22.3382</v>
       </c>
       <c r="E28" s="3">
-        <v>0.216178</v>
+        <v>0.359046</v>
       </c>
       <c r="F28" s="3">
-        <v>8.06596</v>
+        <v>22.6972</v>
       </c>
     </row>
     <row r="29">
@@ -722,13 +921,13 @@
         <v>86.0</v>
       </c>
       <c r="D29" s="3">
-        <v>7.3766</v>
+        <v>16.623</v>
       </c>
       <c r="E29" s="3">
-        <v>0.345834</v>
+        <v>0.483831</v>
       </c>
       <c r="F29" s="3">
-        <v>7.72243</v>
+        <v>17.1068</v>
       </c>
     </row>
     <row r="30">
@@ -742,13 +941,13 @@
         <v>90.0</v>
       </c>
       <c r="D30" s="3">
-        <v>7.30816</v>
+        <v>15.7894</v>
       </c>
       <c r="E30" s="3">
-        <v>0.253155</v>
+        <v>0.40339</v>
       </c>
       <c r="F30" s="3">
-        <v>7.56132</v>
+        <v>16.1928</v>
       </c>
     </row>
     <row r="31">
@@ -762,13 +961,13 @@
         <v>86.0</v>
       </c>
       <c r="D31" s="3">
-        <v>7.34208</v>
+        <v>16.9473</v>
       </c>
       <c r="E31" s="3">
-        <v>0.242352</v>
+        <v>0.455289</v>
       </c>
       <c r="F31" s="3">
-        <v>7.58443</v>
+        <v>17.4026</v>
       </c>
     </row>
     <row r="32">
@@ -782,13 +981,13 @@
         <v>88.0</v>
       </c>
       <c r="D32" s="3">
-        <v>6.8328</v>
+        <v>12.8818</v>
       </c>
       <c r="E32" s="3">
-        <v>0.268609</v>
+        <v>0.410038</v>
       </c>
       <c r="F32" s="3">
-        <v>7.10141</v>
+        <v>13.2918</v>
       </c>
     </row>
     <row r="33">
@@ -802,13 +1001,13 @@
         <v>86.0</v>
       </c>
       <c r="D33" s="3">
-        <v>7.09591</v>
+        <v>12.2219</v>
       </c>
       <c r="E33" s="3">
-        <v>0.238404</v>
+        <v>0.389771</v>
       </c>
       <c r="F33" s="3">
-        <v>7.33431</v>
+        <v>12.6117</v>
       </c>
     </row>
     <row r="34">
@@ -822,13 +1021,13 @@
         <v>80.0</v>
       </c>
       <c r="D34" s="3">
-        <v>7.27264</v>
+        <v>12.2092</v>
       </c>
       <c r="E34" s="3">
-        <v>0.234648</v>
+        <v>0.341029</v>
       </c>
       <c r="F34" s="3">
-        <v>7.50729</v>
+        <v>12.5502</v>
       </c>
     </row>
     <row r="35">
@@ -842,13 +1041,13 @@
         <v>81.0</v>
       </c>
       <c r="D35" s="3">
-        <v>7.68941</v>
+        <v>12.2943</v>
       </c>
       <c r="E35" s="3">
-        <v>0.25151</v>
+        <v>0.390362</v>
       </c>
       <c r="F35" s="3">
-        <v>7.94092</v>
+        <v>12.6847</v>
       </c>
     </row>
     <row r="36">
@@ -862,13 +1061,13 @@
         <v>86.0</v>
       </c>
       <c r="D36" s="3">
-        <v>7.04489</v>
+        <v>12.5911</v>
       </c>
       <c r="E36" s="3">
-        <v>0.249723</v>
+        <v>0.366246</v>
       </c>
       <c r="F36" s="3">
-        <v>7.29462</v>
+        <v>12.9574</v>
       </c>
     </row>
     <row r="37">
@@ -882,733 +1081,733 @@
         <v>85.0</v>
       </c>
       <c r="D37" s="3">
-        <v>8.52283</v>
+        <v>11.7406</v>
       </c>
       <c r="E37" s="3">
-        <v>0.241081</v>
+        <v>0.356858</v>
       </c>
       <c r="F37" s="3">
-        <v>8.76391</v>
+        <v>12.0975</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38" s="3">
-        <v>112.0</v>
+        <v>12.0</v>
       </c>
       <c r="D38" s="3">
-        <v>9.76959</v>
+        <v>17.8144</v>
       </c>
       <c r="E38" s="3">
-        <v>0.385735</v>
+        <v>0.218318</v>
       </c>
       <c r="F38" s="3">
-        <v>10.1553</v>
+        <v>18.0327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3">
-        <v>109.0</v>
+        <v>10.0</v>
       </c>
       <c r="D39" s="3">
-        <v>11.0402</v>
+        <v>18.7123</v>
       </c>
       <c r="E39" s="3">
-        <v>0.307589</v>
+        <v>0.103116</v>
       </c>
       <c r="F39" s="3">
-        <v>11.3478</v>
+        <v>18.8154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3">
-        <v>104.0</v>
+        <v>14.0</v>
       </c>
       <c r="D40" s="3">
-        <v>10.822</v>
+        <v>18.3339</v>
       </c>
       <c r="E40" s="3">
-        <v>0.27728</v>
+        <v>0.113772</v>
       </c>
       <c r="F40" s="3">
-        <v>11.0993</v>
+        <v>18.4477</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3">
-        <v>103.0</v>
+        <v>15.0</v>
       </c>
       <c r="D41" s="3">
-        <v>10.9291</v>
+        <v>17.2323</v>
       </c>
       <c r="E41" s="3">
-        <v>0.276746</v>
+        <v>0.118302</v>
       </c>
       <c r="F41" s="3">
-        <v>11.2058</v>
+        <v>17.3506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3">
-        <v>99.0</v>
+        <v>16.0</v>
       </c>
       <c r="D42" s="3">
-        <v>11.2718</v>
+        <v>31.5156</v>
       </c>
       <c r="E42" s="3">
-        <v>0.266736</v>
+        <v>0.231114</v>
       </c>
       <c r="F42" s="3">
-        <v>11.5385</v>
+        <v>31.7468</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3">
-        <v>101.0</v>
+        <v>16.0</v>
       </c>
       <c r="D43" s="3">
-        <v>10.9242</v>
+        <v>16.8744</v>
       </c>
       <c r="E43" s="3">
-        <v>0.298399</v>
+        <v>0.152716</v>
       </c>
       <c r="F43" s="3">
-        <v>11.2226</v>
+        <v>17.0272</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3">
-        <v>96.0</v>
+        <v>15.0</v>
       </c>
       <c r="D44" s="3">
-        <v>11.3102</v>
+        <v>19.3894</v>
       </c>
       <c r="E44" s="3">
-        <v>0.291818</v>
+        <v>0.120169</v>
       </c>
       <c r="F44" s="3">
-        <v>11.602</v>
+        <v>19.5096</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3">
-        <v>106.0</v>
+        <v>23.0</v>
       </c>
       <c r="D45" s="3">
-        <v>11.2852</v>
+        <v>17.5525</v>
       </c>
       <c r="E45" s="3">
-        <v>0.302179</v>
+        <v>0.138526</v>
       </c>
       <c r="F45" s="3">
-        <v>11.5873</v>
+        <v>17.691</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3">
-        <v>97.0</v>
+        <v>21.0</v>
       </c>
       <c r="D46" s="3">
-        <v>10.4719</v>
+        <v>22.7481</v>
       </c>
       <c r="E46" s="3">
-        <v>0.265517</v>
+        <v>0.194992</v>
       </c>
       <c r="F46" s="3">
-        <v>10.7374</v>
+        <v>22.9431</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="D47" s="3">
-        <v>8.72233</v>
+        <v>16.4907</v>
       </c>
       <c r="E47" s="3">
-        <v>0.157227</v>
+        <v>0.081198</v>
       </c>
       <c r="F47" s="3">
-        <v>8.87956</v>
+        <v>16.5719</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D48" s="3">
-        <v>8.46132</v>
+        <v>17.6258</v>
       </c>
       <c r="E48" s="3">
-        <v>0.081562</v>
+        <v>0.076724</v>
       </c>
       <c r="F48" s="3">
-        <v>8.54289</v>
+        <v>17.7025</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="D49" s="3">
-        <v>8.85106</v>
+        <v>17.8425</v>
       </c>
       <c r="E49" s="3">
-        <v>0.083642</v>
+        <v>0.099766</v>
       </c>
       <c r="F49" s="3">
-        <v>8.9347</v>
+        <v>17.9422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D50" s="3">
-        <v>9.55327</v>
+        <v>17.9224</v>
       </c>
       <c r="E50" s="3">
-        <v>0.085999</v>
+        <v>0.092064</v>
       </c>
       <c r="F50" s="3">
-        <v>9.63927</v>
+        <v>18.0145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="D51" s="3">
-        <v>26.9436</v>
+        <v>31.6295</v>
       </c>
       <c r="E51" s="3">
-        <v>0.123908</v>
+        <v>0.125221</v>
       </c>
       <c r="F51" s="3">
-        <v>27.0675</v>
+        <v>31.7547</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="D52" s="3">
-        <v>8.32012</v>
+        <v>16.6971</v>
       </c>
       <c r="E52" s="3">
-        <v>0.142332</v>
+        <v>0.124979</v>
       </c>
       <c r="F52" s="3">
-        <v>8.46246</v>
+        <v>16.8221</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="3">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="D53" s="3">
-        <v>10.9722</v>
+        <v>18.9416</v>
       </c>
       <c r="E53" s="3">
-        <v>0.078547</v>
+        <v>0.100951</v>
       </c>
       <c r="F53" s="3">
-        <v>11.0507</v>
+        <v>19.0425</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="D54" s="3">
-        <v>9.48639</v>
+        <v>18.9282</v>
       </c>
       <c r="E54" s="3">
-        <v>0.123555</v>
+        <v>0.111354</v>
       </c>
       <c r="F54" s="3">
-        <v>9.60995</v>
+        <v>19.0396</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="D55" s="3">
-        <v>14.7981</v>
+        <v>24.1046</v>
       </c>
       <c r="E55" s="3">
-        <v>0.13449</v>
+        <v>0.111248</v>
       </c>
       <c r="F55" s="3">
-        <v>14.9326</v>
+        <v>24.2158</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="D56" s="3">
-        <v>8.57742</v>
+        <v>16.0906</v>
       </c>
       <c r="E56" s="3">
-        <v>0.130754</v>
+        <v>0.07567</v>
       </c>
       <c r="F56" s="3">
-        <v>8.70817</v>
+        <v>16.1662</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D57" s="3">
-        <v>8.36432</v>
+        <v>17.325</v>
       </c>
       <c r="E57" s="3">
-        <v>0.043321</v>
+        <v>0.075883</v>
       </c>
       <c r="F57" s="3">
-        <v>8.40764</v>
+        <v>17.4009</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="D58" s="3">
-        <v>8.71422</v>
+        <v>17.6977</v>
       </c>
       <c r="E58" s="3">
-        <v>0.045867</v>
+        <v>0.08791</v>
       </c>
       <c r="F58" s="3">
-        <v>8.76009</v>
+        <v>17.7856</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="D59" s="3">
-        <v>10.2408</v>
+        <v>18.3646</v>
       </c>
       <c r="E59" s="3">
-        <v>0.069098</v>
+        <v>0.105598</v>
       </c>
       <c r="F59" s="3">
-        <v>10.3099</v>
+        <v>18.4702</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="D60" s="3">
-        <v>28.7689</v>
+        <v>31.6262</v>
       </c>
       <c r="E60" s="3">
-        <v>0.080002</v>
+        <v>0.129015</v>
       </c>
       <c r="F60" s="3">
-        <v>28.8489</v>
+        <v>31.7553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="D61" s="3">
-        <v>7.82638</v>
+        <v>16.3872</v>
       </c>
       <c r="E61" s="3">
-        <v>0.090923</v>
+        <v>0.129428</v>
       </c>
       <c r="F61" s="3">
-        <v>7.9173</v>
+        <v>16.5167</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="D62" s="3">
-        <v>10.9538</v>
+        <v>19.1346</v>
       </c>
       <c r="E62" s="3">
-        <v>0.050376</v>
+        <v>0.11802</v>
       </c>
       <c r="F62" s="3">
-        <v>11.0042</v>
+        <v>19.2526</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="3">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="D63" s="3">
-        <v>9.18539</v>
+        <v>18.6952</v>
       </c>
       <c r="E63" s="3">
-        <v>0.07497</v>
+        <v>0.1152</v>
       </c>
       <c r="F63" s="3">
-        <v>9.26036</v>
+        <v>18.8104</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="D64" s="3">
-        <v>15.4843</v>
+        <v>22.5209</v>
       </c>
       <c r="E64" s="3">
-        <v>0.099267</v>
+        <v>0.11846</v>
       </c>
       <c r="F64" s="3">
-        <v>15.5836</v>
+        <v>22.6394</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="D65" s="3">
-        <v>8.14637</v>
+        <v>15.1978</v>
       </c>
       <c r="E65" s="3">
-        <v>0.108591</v>
+        <v>0.086514</v>
       </c>
       <c r="F65" s="3">
-        <v>8.25496</v>
+        <v>15.2843</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="D66" s="3">
-        <v>8.36425</v>
+        <v>12.4603</v>
       </c>
       <c r="E66" s="3">
-        <v>0.04163</v>
+        <v>0.089313</v>
       </c>
       <c r="F66" s="3">
-        <v>8.40588</v>
+        <v>12.5496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3">
         <v>15.0</v>
       </c>
       <c r="D67" s="3">
-        <v>8.94712</v>
+        <v>13.8484</v>
       </c>
       <c r="E67" s="3">
-        <v>0.051763</v>
+        <v>0.097519</v>
       </c>
       <c r="F67" s="3">
-        <v>8.99888</v>
+        <v>13.946</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="D68" s="3">
-        <v>8.9509</v>
+        <v>12.8761</v>
       </c>
       <c r="E68" s="3">
-        <v>0.055666</v>
+        <v>0.098397</v>
       </c>
       <c r="F68" s="3">
-        <v>9.00657</v>
+        <v>12.9745</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="D69" s="3">
-        <v>27.1872</v>
+        <v>28.3196</v>
       </c>
       <c r="E69" s="3">
-        <v>0.085655</v>
+        <v>0.101104</v>
       </c>
       <c r="F69" s="3">
-        <v>27.2728</v>
+        <v>28.4207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="D70" s="3">
-        <v>8.10473</v>
+        <v>12.0179</v>
       </c>
       <c r="E70" s="3">
-        <v>0.159836</v>
+        <v>0.140604</v>
       </c>
       <c r="F70" s="3">
-        <v>8.26456</v>
+        <v>12.1585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="D71" s="3">
-        <v>11.0303</v>
+        <v>14.805</v>
       </c>
       <c r="E71" s="3">
-        <v>0.051065</v>
+        <v>0.108836</v>
       </c>
       <c r="F71" s="3">
-        <v>11.0813</v>
+        <v>14.9138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="D72" s="3">
-        <v>10.6549</v>
+        <v>13.8488</v>
       </c>
       <c r="E72" s="3">
-        <v>0.085045</v>
+        <v>0.123207</v>
       </c>
       <c r="F72" s="3">
-        <v>10.7399</v>
+        <v>13.972</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="D73" s="3">
-        <v>16.2992</v>
+        <v>18.3011</v>
       </c>
       <c r="E73" s="3">
-        <v>0.075992</v>
+        <v>0.09411</v>
       </c>
       <c r="F73" s="3">
-        <v>16.3752</v>
+        <v>18.3952</v>
       </c>
     </row>
     <row r="74">
@@ -1616,19 +1815,19 @@
         <v>12</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74" s="3">
-        <v>13.0</v>
+        <v>256.0</v>
       </c>
       <c r="D74" s="3">
-        <v>8.29766</v>
+        <v>2.14682</v>
       </c>
       <c r="E74" s="3">
-        <v>0.164666</v>
+        <v>2.31484</v>
       </c>
       <c r="F74" s="3">
-        <v>8.46232</v>
+        <v>4.46166</v>
       </c>
     </row>
     <row r="75">
@@ -1636,19 +1835,19 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C75" s="3">
-        <v>12.0</v>
+        <v>243.0</v>
       </c>
       <c r="D75" s="3">
-        <v>8.64076</v>
+        <v>2.11666</v>
       </c>
       <c r="E75" s="3">
-        <v>0.066747</v>
+        <v>2.21043</v>
       </c>
       <c r="F75" s="3">
-        <v>8.70751</v>
+        <v>4.3271</v>
       </c>
     </row>
     <row r="76">
@@ -1656,19 +1855,19 @@
         <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3">
-        <v>15.0</v>
+        <v>241.0</v>
       </c>
       <c r="D76" s="3">
-        <v>8.65158</v>
+        <v>2.08675</v>
       </c>
       <c r="E76" s="3">
-        <v>0.087625</v>
+        <v>2.23734</v>
       </c>
       <c r="F76" s="3">
-        <v>8.7392</v>
+        <v>4.32409</v>
       </c>
     </row>
     <row r="77">
@@ -1676,19 +1875,19 @@
         <v>12</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C77" s="3">
-        <v>16.0</v>
+        <v>239.0</v>
       </c>
       <c r="D77" s="3">
-        <v>9.52046</v>
+        <v>2.03789</v>
       </c>
       <c r="E77" s="3">
-        <v>0.096125</v>
+        <v>2.05952</v>
       </c>
       <c r="F77" s="3">
-        <v>9.61659</v>
+        <v>4.09741</v>
       </c>
     </row>
     <row r="78">
@@ -1696,19 +1895,19 @@
         <v>12</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C78" s="3">
-        <v>16.0</v>
+        <v>215.0</v>
       </c>
       <c r="D78" s="3">
-        <v>27.9971</v>
+        <v>2.20742</v>
       </c>
       <c r="E78" s="3">
-        <v>0.114591</v>
+        <v>2.08946</v>
       </c>
       <c r="F78" s="3">
-        <v>28.1117</v>
+        <v>4.29688</v>
       </c>
     </row>
     <row r="79">
@@ -1716,19 +1915,19 @@
         <v>12</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C79" s="3">
-        <v>21.0</v>
+        <v>251.0</v>
       </c>
       <c r="D79" s="3">
-        <v>10.0464</v>
+        <v>2.04035</v>
       </c>
       <c r="E79" s="3">
-        <v>0.115694</v>
+        <v>2.23806</v>
       </c>
       <c r="F79" s="3">
-        <v>10.1621</v>
+        <v>4.2784</v>
       </c>
     </row>
     <row r="80">
@@ -1736,19 +1935,19 @@
         <v>12</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C80" s="3">
-        <v>12.0</v>
+        <v>248.0</v>
       </c>
       <c r="D80" s="3">
-        <v>10.6801</v>
+        <v>3.38702</v>
       </c>
       <c r="E80" s="3">
-        <v>0.092556</v>
+        <v>2.16348</v>
       </c>
       <c r="F80" s="3">
-        <v>10.7727</v>
+        <v>5.55051</v>
       </c>
     </row>
     <row r="81">
@@ -1756,19 +1955,19 @@
         <v>12</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C81" s="3">
-        <v>21.0</v>
+        <v>243.0</v>
       </c>
       <c r="D81" s="3">
-        <v>11.1112</v>
+        <v>2.15429</v>
       </c>
       <c r="E81" s="3">
-        <v>0.111816</v>
+        <v>2.05873</v>
       </c>
       <c r="F81" s="3">
-        <v>11.223</v>
+        <v>4.21302</v>
       </c>
     </row>
     <row r="82">
@@ -1776,19 +1975,19 @@
         <v>12</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C82" s="3">
-        <v>19.0</v>
+        <v>247.0</v>
       </c>
       <c r="D82" s="3">
-        <v>14.7687</v>
+        <v>2.2627</v>
       </c>
       <c r="E82" s="3">
-        <v>0.089559</v>
+        <v>2.06623</v>
       </c>
       <c r="F82" s="3">
-        <v>14.8583</v>
+        <v>4.32893</v>
       </c>
     </row>
     <row r="83">
@@ -1796,19 +1995,19 @@
         <v>12</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C83" s="3">
-        <v>14.0</v>
+        <v>320.0</v>
       </c>
       <c r="D83" s="3">
-        <v>11.1981</v>
+        <v>2.4229</v>
       </c>
       <c r="E83" s="3">
-        <v>0.1162</v>
+        <v>2.10279</v>
       </c>
       <c r="F83" s="3">
-        <v>11.3143</v>
+        <v>4.52569</v>
       </c>
     </row>
     <row r="84">
@@ -1816,19 +2015,19 @@
         <v>12</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C84" s="3">
-        <v>11.0</v>
+        <v>332.0</v>
       </c>
       <c r="D84" s="3">
-        <v>12.14</v>
+        <v>2.05355</v>
       </c>
       <c r="E84" s="3">
-        <v>0.069378</v>
+        <v>2.08523</v>
       </c>
       <c r="F84" s="3">
-        <v>12.2094</v>
+        <v>4.13878</v>
       </c>
     </row>
     <row r="85">
@@ -1836,19 +2035,19 @@
         <v>12</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85" s="3">
-        <v>16.0</v>
+        <v>299.0</v>
       </c>
       <c r="D85" s="3">
-        <v>12.1235</v>
+        <v>2.1048</v>
       </c>
       <c r="E85" s="3">
-        <v>0.068909</v>
+        <v>2.03033</v>
       </c>
       <c r="F85" s="3">
-        <v>12.1924</v>
+        <v>4.13513</v>
       </c>
     </row>
     <row r="86">
@@ -1856,19 +2055,19 @@
         <v>12</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C86" s="3">
-        <v>20.0</v>
+        <v>331.0</v>
       </c>
       <c r="D86" s="3">
-        <v>13.4661</v>
+        <v>1.96985</v>
       </c>
       <c r="E86" s="3">
-        <v>0.077951</v>
+        <v>1.95795</v>
       </c>
       <c r="F86" s="3">
-        <v>13.5441</v>
+        <v>3.9278</v>
       </c>
     </row>
     <row r="87">
@@ -1876,19 +2075,19 @@
         <v>12</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C87" s="3">
-        <v>21.0</v>
+        <v>276.0</v>
       </c>
       <c r="D87" s="3">
-        <v>30.5509</v>
+        <v>2.02643</v>
       </c>
       <c r="E87" s="3">
-        <v>0.102661</v>
+        <v>1.93034</v>
       </c>
       <c r="F87" s="3">
-        <v>30.6536</v>
+        <v>3.95678</v>
       </c>
     </row>
     <row r="88">
@@ -1896,19 +2095,19 @@
         <v>12</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C88" s="3">
-        <v>23.0</v>
+        <v>327.0</v>
       </c>
       <c r="D88" s="3">
-        <v>11.9575</v>
+        <v>2.02909</v>
       </c>
       <c r="E88" s="3">
-        <v>0.143171</v>
+        <v>2.05891</v>
       </c>
       <c r="F88" s="3">
-        <v>12.1007</v>
+        <v>4.088</v>
       </c>
     </row>
     <row r="89">
@@ -1916,19 +2115,19 @@
         <v>12</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C89" s="3">
-        <v>13.0</v>
+        <v>324.0</v>
       </c>
       <c r="D89" s="3">
-        <v>14.0444</v>
+        <v>2.00572</v>
       </c>
       <c r="E89" s="3">
-        <v>0.063321</v>
+        <v>1.9951</v>
       </c>
       <c r="F89" s="3">
-        <v>14.1077</v>
+        <v>4.00083</v>
       </c>
     </row>
     <row r="90">
@@ -1936,19 +2135,19 @@
         <v>12</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C90" s="3">
-        <v>24.0</v>
+        <v>315.0</v>
       </c>
       <c r="D90" s="3">
-        <v>12.4973</v>
+        <v>2.07234</v>
       </c>
       <c r="E90" s="3">
-        <v>0.112324</v>
+        <v>1.91807</v>
       </c>
       <c r="F90" s="3">
-        <v>12.6097</v>
+        <v>3.99042</v>
       </c>
     </row>
     <row r="91">
@@ -1956,919 +2155,919 @@
         <v>12</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C91" s="3">
-        <v>23.0</v>
+        <v>307.0</v>
       </c>
       <c r="D91" s="3">
-        <v>18.0403</v>
+        <v>2.06052</v>
       </c>
       <c r="E91" s="3">
-        <v>0.138654</v>
+        <v>1.89877</v>
       </c>
       <c r="F91" s="3">
-        <v>18.1789</v>
+        <v>3.95929</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" s="3">
-        <v>256.0</v>
+        <v>307.0</v>
       </c>
       <c r="D92" s="3">
-        <v>1.46451</v>
+        <v>2.0565</v>
       </c>
       <c r="E92" s="3">
-        <v>1.08994</v>
+        <v>2.27227</v>
       </c>
       <c r="F92" s="3">
-        <v>2.55445</v>
+        <v>4.32877</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" s="3">
-        <v>243.0</v>
+        <v>308.0</v>
       </c>
       <c r="D93" s="3">
-        <v>1.46466</v>
+        <v>2.16562</v>
       </c>
       <c r="E93" s="3">
-        <v>1.18182</v>
+        <v>2.11038</v>
       </c>
       <c r="F93" s="3">
-        <v>2.64648</v>
+        <v>4.27601</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" s="3">
-        <v>241.0</v>
+        <v>298.0</v>
       </c>
       <c r="D94" s="3">
-        <v>1.46618</v>
+        <v>2.12004</v>
       </c>
       <c r="E94" s="3">
-        <v>1.02182</v>
+        <v>2.25271</v>
       </c>
       <c r="F94" s="3">
-        <v>2.48801</v>
+        <v>4.37275</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95" s="3">
-        <v>239.0</v>
+        <v>321.0</v>
       </c>
       <c r="D95" s="3">
-        <v>1.58547</v>
+        <v>2.03405</v>
       </c>
       <c r="E95" s="3">
-        <v>0.992533</v>
+        <v>2.06143</v>
       </c>
       <c r="F95" s="3">
-        <v>2.57801</v>
+        <v>4.09548</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="3">
-        <v>215.0</v>
+        <v>283.0</v>
       </c>
       <c r="D96" s="3">
-        <v>1.50713</v>
+        <v>2.05054</v>
       </c>
       <c r="E96" s="3">
-        <v>0.955112</v>
+        <v>1.98236</v>
       </c>
       <c r="F96" s="3">
-        <v>2.46224</v>
+        <v>4.0329</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" s="3">
-        <v>251.0</v>
+        <v>315.0</v>
       </c>
       <c r="D97" s="3">
-        <v>1.50211</v>
+        <v>2.01056</v>
       </c>
       <c r="E97" s="3">
-        <v>1.08638</v>
+        <v>2.25185</v>
       </c>
       <c r="F97" s="3">
-        <v>2.58849</v>
+        <v>4.26241</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="3">
-        <v>248.0</v>
+        <v>323.0</v>
       </c>
       <c r="D98" s="3">
-        <v>1.77276</v>
+        <v>2.02676</v>
       </c>
       <c r="E98" s="3">
-        <v>1.02643</v>
+        <v>2.08976</v>
       </c>
       <c r="F98" s="3">
-        <v>2.79919</v>
+        <v>4.11652</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" s="3">
-        <v>243.0</v>
+        <v>302.0</v>
       </c>
       <c r="D99" s="3">
-        <v>1.51799</v>
+        <v>2.08204</v>
       </c>
       <c r="E99" s="3">
-        <v>0.959528</v>
+        <v>1.98918</v>
       </c>
       <c r="F99" s="3">
-        <v>2.47752</v>
+        <v>4.07122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" s="3">
-        <v>247.0</v>
+        <v>311.0</v>
       </c>
       <c r="D100" s="3">
-        <v>1.60528</v>
+        <v>2.05513</v>
       </c>
       <c r="E100" s="3">
-        <v>1.46495</v>
+        <v>2.0025</v>
       </c>
       <c r="F100" s="3">
-        <v>3.07024</v>
+        <v>4.05763</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101" s="3">
-        <v>320.0</v>
+        <v>251.0</v>
       </c>
       <c r="D101" s="3">
-        <v>1.52596</v>
+        <v>2.15834</v>
       </c>
       <c r="E101" s="3">
-        <v>1.02697</v>
+        <v>2.49682</v>
       </c>
       <c r="F101" s="3">
-        <v>2.55293</v>
+        <v>4.65516</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" s="3">
-        <v>332.0</v>
+        <v>247.0</v>
       </c>
       <c r="D102" s="3">
-        <v>1.52914</v>
+        <v>3.26169</v>
       </c>
       <c r="E102" s="3">
-        <v>0.944841</v>
+        <v>2.24681</v>
       </c>
       <c r="F102" s="3">
-        <v>2.47398</v>
+        <v>5.5085</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C103" s="3">
-        <v>299.0</v>
+        <v>233.0</v>
       </c>
       <c r="D103" s="3">
-        <v>1.69884</v>
+        <v>2.01258</v>
       </c>
       <c r="E103" s="3">
-        <v>1.02332</v>
+        <v>2.17303</v>
       </c>
       <c r="F103" s="3">
-        <v>2.72216</v>
+        <v>4.18561</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C104" s="3">
-        <v>331.0</v>
+        <v>255.0</v>
       </c>
       <c r="D104" s="3">
-        <v>1.66923</v>
+        <v>2.07998</v>
       </c>
       <c r="E104" s="3">
-        <v>1.17624</v>
+        <v>2.20534</v>
       </c>
       <c r="F104" s="3">
-        <v>2.84547</v>
+        <v>4.28532</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C105" s="3">
-        <v>276.0</v>
+        <v>231.0</v>
       </c>
       <c r="D105" s="3">
-        <v>1.46054</v>
+        <v>2.01987</v>
       </c>
       <c r="E105" s="3">
-        <v>1.07427</v>
+        <v>2.05826</v>
       </c>
       <c r="F105" s="3">
-        <v>2.53481</v>
+        <v>4.07814</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C106" s="3">
-        <v>327.0</v>
+        <v>265.0</v>
       </c>
       <c r="D106" s="3">
-        <v>1.93473</v>
+        <v>2.17882</v>
       </c>
       <c r="E106" s="3">
-        <v>1.14726</v>
+        <v>2.35997</v>
       </c>
       <c r="F106" s="3">
-        <v>3.08199</v>
+        <v>4.5388</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C107" s="3">
-        <v>324.0</v>
+        <v>251.0</v>
       </c>
       <c r="D107" s="3">
-        <v>1.63519</v>
+        <v>2.07803</v>
       </c>
       <c r="E107" s="3">
-        <v>0.922433</v>
+        <v>2.25608</v>
       </c>
       <c r="F107" s="3">
-        <v>2.55762</v>
+        <v>4.33412</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3">
-        <v>315.0</v>
+        <v>253.0</v>
       </c>
       <c r="D108" s="3">
-        <v>1.61927</v>
+        <v>2.16569</v>
       </c>
       <c r="E108" s="3">
-        <v>1.05775</v>
+        <v>2.20423</v>
       </c>
       <c r="F108" s="3">
-        <v>2.67702</v>
+        <v>4.36992</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C109" s="3">
-        <v>307.0</v>
+        <v>247.0</v>
       </c>
       <c r="D109" s="3">
-        <v>1.81509</v>
+        <v>2.2168</v>
       </c>
       <c r="E109" s="3">
-        <v>0.928912</v>
+        <v>2.03313</v>
       </c>
       <c r="F109" s="3">
-        <v>2.744</v>
+        <v>4.24993</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C110" s="3">
-        <v>307.0</v>
+        <v>168.0</v>
       </c>
       <c r="D110" s="3">
-        <v>1.66225</v>
+        <v>384.294</v>
       </c>
       <c r="E110" s="3">
-        <v>1.16351</v>
+        <v>1.0906</v>
       </c>
       <c r="F110" s="3">
-        <v>2.82576</v>
+        <v>385.385</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C111" s="3">
-        <v>308.0</v>
+        <v>169.0</v>
       </c>
       <c r="D111" s="3">
-        <v>1.56639</v>
+        <v>378.93</v>
       </c>
       <c r="E111" s="3">
-        <v>0.97767</v>
+        <v>1.11045</v>
       </c>
       <c r="F111" s="3">
-        <v>2.54406</v>
+        <v>380.04</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C112" s="3">
-        <v>298.0</v>
+        <v>157.0</v>
       </c>
       <c r="D112" s="3">
-        <v>1.50868</v>
+        <v>379.564</v>
       </c>
       <c r="E112" s="3">
-        <v>0.988651</v>
+        <v>1.09217</v>
       </c>
       <c r="F112" s="3">
-        <v>2.49733</v>
+        <v>380.656</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3">
-        <v>321.0</v>
+        <v>170.0</v>
       </c>
       <c r="D113" s="3">
-        <v>1.64929</v>
+        <v>386.571</v>
       </c>
       <c r="E113" s="3">
-        <v>1.07087</v>
+        <v>1.16605</v>
       </c>
       <c r="F113" s="3">
-        <v>2.72016</v>
+        <v>387.737</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C114" s="3">
-        <v>283.0</v>
+        <v>171.0</v>
       </c>
       <c r="D114" s="3">
-        <v>1.6968</v>
+        <v>381.681</v>
       </c>
       <c r="E114" s="3">
-        <v>0.903165</v>
+        <v>1.13585</v>
       </c>
       <c r="F114" s="3">
-        <v>2.59997</v>
+        <v>382.817</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" s="3">
-        <v>315.0</v>
+        <v>186.0</v>
       </c>
       <c r="D115" s="3">
-        <v>1.48206</v>
+        <v>378.972</v>
       </c>
       <c r="E115" s="3">
-        <v>1.08979</v>
+        <v>1.17852</v>
       </c>
       <c r="F115" s="3">
-        <v>2.57186</v>
+        <v>380.151</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C116" s="3">
-        <v>323.0</v>
+        <v>174.0</v>
       </c>
       <c r="D116" s="3">
-        <v>1.54946</v>
+        <v>381.907</v>
       </c>
       <c r="E116" s="3">
-        <v>1.1262</v>
+        <v>1.21916</v>
       </c>
       <c r="F116" s="3">
-        <v>2.67566</v>
+        <v>383.126</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C117" s="3">
-        <v>302.0</v>
+        <v>167.0</v>
       </c>
       <c r="D117" s="3">
-        <v>1.78268</v>
+        <v>386.179</v>
       </c>
       <c r="E117" s="3">
-        <v>0.928018</v>
+        <v>0.9772</v>
       </c>
       <c r="F117" s="3">
-        <v>2.7107</v>
+        <v>387.156</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C118" s="3">
-        <v>311.0</v>
+        <v>182.0</v>
       </c>
       <c r="D118" s="3">
-        <v>1.55771</v>
+        <v>381.256</v>
       </c>
       <c r="E118" s="3">
-        <v>0.96933</v>
+        <v>1.01505</v>
       </c>
       <c r="F118" s="3">
-        <v>2.52704</v>
+        <v>382.271</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
-        <v>251.0</v>
+        <v>174.0</v>
       </c>
       <c r="D119" s="3">
-        <v>1.43863</v>
+        <v>383.536</v>
       </c>
       <c r="E119" s="3">
-        <v>1.21366</v>
+        <v>0.991375</v>
       </c>
       <c r="F119" s="3">
-        <v>2.65228</v>
+        <v>384.528</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
-        <v>247.0</v>
+        <v>195.0</v>
       </c>
       <c r="D120" s="3">
-        <v>1.4729</v>
+        <v>382.288</v>
       </c>
       <c r="E120" s="3">
-        <v>1.02729</v>
+        <v>1.074</v>
       </c>
       <c r="F120" s="3">
-        <v>2.50019</v>
+        <v>383.362</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
-        <v>233.0</v>
+        <v>182.0</v>
       </c>
       <c r="D121" s="3">
-        <v>1.58976</v>
+        <v>379.283</v>
       </c>
       <c r="E121" s="3">
-        <v>0.998233</v>
+        <v>1.10183</v>
       </c>
       <c r="F121" s="3">
-        <v>2.58799</v>
+        <v>380.385</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
-        <v>255.0</v>
+        <v>177.0</v>
       </c>
       <c r="D122" s="3">
-        <v>1.75441</v>
+        <v>383.296</v>
       </c>
       <c r="E122" s="3">
-        <v>0.974367</v>
+        <v>1.04958</v>
       </c>
       <c r="F122" s="3">
-        <v>2.72877</v>
+        <v>384.346</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
-        <v>231.0</v>
+        <v>182.0</v>
       </c>
       <c r="D123" s="3">
-        <v>1.50609</v>
+        <v>379.906</v>
       </c>
       <c r="E123" s="3">
-        <v>1.17675</v>
+        <v>1.05779</v>
       </c>
       <c r="F123" s="3">
-        <v>2.68284</v>
+        <v>380.964</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
-        <v>265.0</v>
+        <v>193.0</v>
       </c>
       <c r="D124" s="3">
-        <v>1.58285</v>
+        <v>387.053</v>
       </c>
       <c r="E124" s="3">
-        <v>1.01961</v>
+        <v>1.04348</v>
       </c>
       <c r="F124" s="3">
-        <v>2.60246</v>
+        <v>388.096</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
-        <v>251.0</v>
+        <v>208.0</v>
       </c>
       <c r="D125" s="3">
-        <v>1.60887</v>
+        <v>379.755</v>
       </c>
       <c r="E125" s="3">
-        <v>1.00824</v>
+        <v>1.0464</v>
       </c>
       <c r="F125" s="3">
-        <v>2.61711</v>
+        <v>380.802</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
-        <v>253.0</v>
+        <v>185.0</v>
       </c>
       <c r="D126" s="3">
-        <v>1.5844</v>
+        <v>381.767</v>
       </c>
       <c r="E126" s="3">
-        <v>1.0015</v>
+        <v>0.99856</v>
       </c>
       <c r="F126" s="3">
-        <v>2.5859</v>
+        <v>382.766</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
-        <v>247.0</v>
+        <v>179.0</v>
       </c>
       <c r="D127" s="3">
-        <v>1.61459</v>
+        <v>382.221</v>
       </c>
       <c r="E127" s="3">
-        <v>1.04244</v>
+        <v>0.972083</v>
       </c>
       <c r="F127" s="3">
-        <v>2.65703</v>
+        <v>383.193</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C128" s="3">
-        <v>316.0</v>
+        <v>155.0</v>
       </c>
       <c r="D128" s="3">
-        <v>1.45316</v>
+        <v>377.913</v>
       </c>
       <c r="E128" s="3">
-        <v>1.50115</v>
+        <v>0.966923</v>
       </c>
       <c r="F128" s="3">
-        <v>2.95431</v>
+        <v>378.88</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C129" s="3">
-        <v>325.0</v>
+        <v>167.0</v>
       </c>
       <c r="D129" s="3">
-        <v>1.61076</v>
+        <v>382.531</v>
       </c>
       <c r="E129" s="3">
-        <v>1.30172</v>
+        <v>1.08188</v>
       </c>
       <c r="F129" s="3">
-        <v>2.91248</v>
+        <v>383.613</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C130" s="3">
-        <v>297.0</v>
+        <v>155.0</v>
       </c>
       <c r="D130" s="3">
-        <v>1.46261</v>
+        <v>382.216</v>
       </c>
       <c r="E130" s="3">
-        <v>1.32009</v>
+        <v>1.10656</v>
       </c>
       <c r="F130" s="3">
-        <v>2.78271</v>
+        <v>383.322</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C131" s="3">
-        <v>311.0</v>
+        <v>161.0</v>
       </c>
       <c r="D131" s="3">
-        <v>1.58981</v>
+        <v>381.479</v>
       </c>
       <c r="E131" s="3">
-        <v>1.29242</v>
+        <v>1.08738</v>
       </c>
       <c r="F131" s="3">
-        <v>2.88223</v>
+        <v>382.566</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C132" s="3">
-        <v>291.0</v>
+        <v>156.0</v>
       </c>
       <c r="D132" s="3">
-        <v>1.53962</v>
+        <v>383.91</v>
       </c>
       <c r="E132" s="3">
-        <v>1.33756</v>
+        <v>1.06034</v>
       </c>
       <c r="F132" s="3">
-        <v>2.87719</v>
+        <v>384.97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C133" s="3">
-        <v>326.0</v>
+        <v>181.0</v>
       </c>
       <c r="D133" s="3">
-        <v>1.69284</v>
+        <v>384.574</v>
       </c>
       <c r="E133" s="3">
-        <v>1.4468</v>
+        <v>1.10005</v>
       </c>
       <c r="F133" s="3">
-        <v>3.13964</v>
+        <v>385.674</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C134" s="3">
-        <v>315.0</v>
+        <v>165.0</v>
       </c>
       <c r="D134" s="3">
-        <v>1.51713</v>
+        <v>382.817</v>
       </c>
       <c r="E134" s="3">
-        <v>1.30503</v>
+        <v>1.05663</v>
       </c>
       <c r="F134" s="3">
-        <v>2.82217</v>
+        <v>383.874</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C135" s="3">
-        <v>300.0</v>
+        <v>169.0</v>
       </c>
       <c r="D135" s="3">
-        <v>1.67086</v>
+        <v>381.377</v>
       </c>
       <c r="E135" s="3">
-        <v>1.60201</v>
+        <v>1.06668</v>
       </c>
       <c r="F135" s="3">
-        <v>3.27287</v>
+        <v>382.443</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C136" s="3">
-        <v>301.0</v>
+        <v>170.0</v>
       </c>
       <c r="D136" s="3">
-        <v>1.65881</v>
+        <v>383.319</v>
       </c>
       <c r="E136" s="3">
-        <v>1.41821</v>
+        <v>0.9468</v>
       </c>
       <c r="F136" s="3">
-        <v>3.07702</v>
+        <v>384.265</v>
       </c>
     </row>
     <row r="137">
@@ -2876,19 +3075,19 @@
         <v>7</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C137" s="3">
-        <v>171.0</v>
+        <v>154.0</v>
       </c>
       <c r="D137" s="3">
-        <v>164.342</v>
+        <v>379.832</v>
       </c>
       <c r="E137" s="3">
-        <v>0.634071</v>
+        <v>0.9922</v>
       </c>
       <c r="F137" s="3">
-        <v>164.976</v>
+        <v>380.825</v>
       </c>
     </row>
     <row r="138">
@@ -2896,19 +3095,19 @@
         <v>7</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C138" s="3">
-        <v>176.0</v>
+        <v>173.0</v>
       </c>
       <c r="D138" s="3">
-        <v>164.519</v>
+        <v>384.077</v>
       </c>
       <c r="E138" s="3">
-        <v>0.606714</v>
+        <v>0.946192</v>
       </c>
       <c r="F138" s="3">
-        <v>165.126</v>
+        <v>385.023</v>
       </c>
     </row>
     <row r="139">
@@ -2916,19 +3115,19 @@
         <v>7</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C139" s="3">
-        <v>157.0</v>
+        <v>153.0</v>
       </c>
       <c r="D139" s="3">
-        <v>168.124</v>
+        <v>382.524</v>
       </c>
       <c r="E139" s="3">
-        <v>0.584276</v>
+        <v>1.03583</v>
       </c>
       <c r="F139" s="3">
-        <v>168.708</v>
+        <v>383.56</v>
       </c>
     </row>
     <row r="140">
@@ -2936,19 +3135,19 @@
         <v>7</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C140" s="3">
-        <v>176.0</v>
+        <v>168.0</v>
       </c>
       <c r="D140" s="3">
-        <v>161.845</v>
+        <v>378.435</v>
       </c>
       <c r="E140" s="3">
-        <v>0.617718</v>
+        <v>1.06819</v>
       </c>
       <c r="F140" s="3">
-        <v>162.462</v>
+        <v>379.503</v>
       </c>
     </row>
     <row r="141">
@@ -2956,19 +3155,19 @@
         <v>7</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C141" s="3">
-        <v>174.0</v>
+        <v>158.0</v>
       </c>
       <c r="D141" s="3">
-        <v>166.391</v>
+        <v>382.373</v>
       </c>
       <c r="E141" s="3">
-        <v>0.63219</v>
+        <v>0.983201</v>
       </c>
       <c r="F141" s="3">
-        <v>167.023</v>
+        <v>383.356</v>
       </c>
     </row>
     <row r="142">
@@ -2976,19 +3175,19 @@
         <v>7</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C142" s="3">
-        <v>188.0</v>
+        <v>181.0</v>
       </c>
       <c r="D142" s="3">
-        <v>165.331</v>
+        <v>383.382</v>
       </c>
       <c r="E142" s="3">
-        <v>0.589179</v>
+        <v>1.04629</v>
       </c>
       <c r="F142" s="3">
-        <v>165.92</v>
+        <v>384.428</v>
       </c>
     </row>
     <row r="143">
@@ -2996,19 +3195,19 @@
         <v>7</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C143" s="3">
-        <v>173.0</v>
+        <v>169.0</v>
       </c>
       <c r="D143" s="3">
-        <v>162.706</v>
+        <v>380.423</v>
       </c>
       <c r="E143" s="3">
-        <v>0.612351</v>
+        <v>1.01572</v>
       </c>
       <c r="F143" s="3">
-        <v>163.319</v>
+        <v>381.439</v>
       </c>
     </row>
     <row r="144">
@@ -3016,19 +3215,19 @@
         <v>7</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C144" s="3">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
       <c r="D144" s="3">
-        <v>166.488</v>
+        <v>382.639</v>
       </c>
       <c r="E144" s="3">
-        <v>0.61848</v>
+        <v>0.957343</v>
       </c>
       <c r="F144" s="3">
-        <v>167.106</v>
+        <v>383.596</v>
       </c>
     </row>
     <row r="145">
@@ -3036,1639 +3235,1639 @@
         <v>7</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C145" s="3">
-        <v>184.0</v>
+        <v>165.0</v>
       </c>
       <c r="D145" s="3">
-        <v>167.994</v>
+        <v>386.197</v>
       </c>
       <c r="E145" s="3">
-        <v>0.543444</v>
+        <v>0.831199</v>
       </c>
       <c r="F145" s="3">
-        <v>168.538</v>
+        <v>387.029</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" s="3">
-        <v>178.0</v>
+        <v>73.0</v>
       </c>
       <c r="D146" s="3">
-        <v>159.192</v>
+        <v>8.15711</v>
       </c>
       <c r="E146" s="3">
-        <v>0.601958</v>
+        <v>0.303209</v>
       </c>
       <c r="F146" s="3">
-        <v>159.794</v>
+        <v>8.46032</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="3">
-        <v>205.0</v>
+        <v>74.0</v>
       </c>
       <c r="D147" s="3">
-        <v>165.622</v>
+        <v>7.95585</v>
       </c>
       <c r="E147" s="3">
-        <v>0.639588</v>
+        <v>0.316218</v>
       </c>
       <c r="F147" s="3">
-        <v>166.261</v>
+        <v>8.27207</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="3">
-        <v>185.0</v>
+        <v>79.0</v>
       </c>
       <c r="D148" s="3">
-        <v>162.754</v>
+        <v>7.9037</v>
       </c>
       <c r="E148" s="3">
-        <v>0.572128</v>
+        <v>0.290914</v>
       </c>
       <c r="F148" s="3">
-        <v>163.326</v>
+        <v>8.19461</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" s="3">
-        <v>179.0</v>
+        <v>85.0</v>
       </c>
       <c r="D149" s="3">
-        <v>161.19</v>
+        <v>8.50766</v>
       </c>
       <c r="E149" s="3">
-        <v>0.570542</v>
+        <v>0.314927</v>
       </c>
       <c r="F149" s="3">
-        <v>161.76</v>
+        <v>8.82259</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" s="3">
-        <v>183.0</v>
+        <v>79.0</v>
       </c>
       <c r="D150" s="3">
-        <v>160.393</v>
+        <v>7.15852</v>
       </c>
       <c r="E150" s="3">
-        <v>0.582778</v>
+        <v>0.385869</v>
       </c>
       <c r="F150" s="3">
-        <v>160.976</v>
+        <v>7.54439</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" s="3">
-        <v>195.0</v>
+        <v>90.0</v>
       </c>
       <c r="D151" s="3">
-        <v>161.593</v>
+        <v>7.64149</v>
       </c>
       <c r="E151" s="3">
-        <v>0.574696</v>
+        <v>0.337513</v>
       </c>
       <c r="F151" s="3">
-        <v>162.167</v>
+        <v>7.979</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" s="3">
-        <v>207.0</v>
+        <v>88.0</v>
       </c>
       <c r="D152" s="3">
-        <v>163.373</v>
+        <v>7.84695</v>
       </c>
       <c r="E152" s="3">
-        <v>0.561909</v>
+        <v>0.320806</v>
       </c>
       <c r="F152" s="3">
-        <v>163.935</v>
+        <v>8.16775</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" s="3">
-        <v>189.0</v>
+        <v>86.0</v>
       </c>
       <c r="D153" s="3">
-        <v>161.584</v>
+        <v>7.73997</v>
       </c>
       <c r="E153" s="3">
-        <v>0.526951</v>
+        <v>0.337282</v>
       </c>
       <c r="F153" s="3">
-        <v>162.111</v>
+        <v>8.07725</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" s="3">
-        <v>183.0</v>
+        <v>90.0</v>
       </c>
       <c r="D154" s="3">
-        <v>168.376</v>
+        <v>10.0975</v>
       </c>
       <c r="E154" s="3">
-        <v>0.578945</v>
+        <v>0.320411</v>
       </c>
       <c r="F154" s="3">
-        <v>168.954</v>
+        <v>10.4179</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155" s="3">
-        <v>162.0</v>
+        <v>49.0</v>
       </c>
       <c r="D155" s="3">
-        <v>160.699</v>
+        <v>6.95717</v>
       </c>
       <c r="E155" s="3">
-        <v>0.635959</v>
+        <v>0.211173</v>
       </c>
       <c r="F155" s="3">
-        <v>161.335</v>
+        <v>7.16835</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C156" s="3">
-        <v>175.0</v>
+        <v>43.0</v>
       </c>
       <c r="D156" s="3">
-        <v>164.924</v>
+        <v>7.49278</v>
       </c>
       <c r="E156" s="3">
-        <v>0.553134</v>
+        <v>0.266163</v>
       </c>
       <c r="F156" s="3">
-        <v>165.477</v>
+        <v>7.75894</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157" s="3">
-        <v>158.0</v>
+        <v>45.0</v>
       </c>
       <c r="D157" s="3">
-        <v>160.644</v>
+        <v>7.53161</v>
       </c>
       <c r="E157" s="3">
-        <v>0.545313</v>
+        <v>0.2955</v>
       </c>
       <c r="F157" s="3">
-        <v>161.189</v>
+        <v>7.82711</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C158" s="3">
-        <v>167.0</v>
+        <v>59.0</v>
       </c>
       <c r="D158" s="3">
-        <v>168.585</v>
+        <v>7.59186</v>
       </c>
       <c r="E158" s="3">
-        <v>0.599826</v>
+        <v>0.24923</v>
       </c>
       <c r="F158" s="3">
-        <v>169.185</v>
+        <v>7.84109</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C159" s="3">
-        <v>160.0</v>
+        <v>53.0</v>
       </c>
       <c r="D159" s="3">
-        <v>162.274</v>
+        <v>7.30891</v>
       </c>
       <c r="E159" s="3">
-        <v>0.628649</v>
+        <v>0.271492</v>
       </c>
       <c r="F159" s="3">
-        <v>162.903</v>
+        <v>7.5804</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="3">
-        <v>182.0</v>
+        <v>76.0</v>
       </c>
       <c r="D160" s="3">
-        <v>166.689</v>
+        <v>9.61892</v>
       </c>
       <c r="E160" s="3">
-        <v>0.55508</v>
+        <v>0.297683</v>
       </c>
       <c r="F160" s="3">
-        <v>167.244</v>
+        <v>9.9166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C161" s="3">
-        <v>167.0</v>
+        <v>67.0</v>
       </c>
       <c r="D161" s="3">
-        <v>160.921</v>
+        <v>7.2796</v>
       </c>
       <c r="E161" s="3">
-        <v>0.549509</v>
+        <v>0.318153</v>
       </c>
       <c r="F161" s="3">
-        <v>161.47</v>
+        <v>7.59775</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" s="3">
-        <v>171.0</v>
+        <v>83.0</v>
       </c>
       <c r="D162" s="3">
-        <v>163.757</v>
+        <v>7.5157</v>
       </c>
       <c r="E162" s="3">
-        <v>0.639853</v>
+        <v>0.32128</v>
       </c>
       <c r="F162" s="3">
-        <v>164.397</v>
+        <v>7.83698</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" s="3">
-        <v>172.0</v>
+        <v>65.0</v>
       </c>
       <c r="D163" s="3">
-        <v>165.733</v>
+        <v>7.60018</v>
       </c>
       <c r="E163" s="3">
-        <v>0.490246</v>
+        <v>0.295455</v>
       </c>
       <c r="F163" s="3">
-        <v>166.223</v>
+        <v>7.89563</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C164" s="3">
-        <v>160.0</v>
+        <v>67.0</v>
       </c>
       <c r="D164" s="3">
-        <v>159.775</v>
+        <v>7.34415</v>
       </c>
       <c r="E164" s="3">
-        <v>0.553006</v>
+        <v>0.233093</v>
       </c>
       <c r="F164" s="3">
-        <v>160.328</v>
+        <v>7.57724</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C165" s="3">
-        <v>177.0</v>
+        <v>70.0</v>
       </c>
       <c r="D165" s="3">
-        <v>161.536</v>
+        <v>7.68914</v>
       </c>
       <c r="E165" s="3">
-        <v>0.547676</v>
+        <v>0.308685</v>
       </c>
       <c r="F165" s="3">
-        <v>162.084</v>
+        <v>7.99783</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C166" s="3">
-        <v>155.0</v>
+        <v>72.0</v>
       </c>
       <c r="D166" s="3">
-        <v>166.083</v>
+        <v>7.70531</v>
       </c>
       <c r="E166" s="3">
-        <v>0.550144</v>
+        <v>0.266458</v>
       </c>
       <c r="F166" s="3">
-        <v>166.633</v>
+        <v>7.97176</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167" s="3">
-        <v>173.0</v>
+        <v>84.0</v>
       </c>
       <c r="D167" s="3">
-        <v>162.483</v>
+        <v>7.42026</v>
       </c>
       <c r="E167" s="3">
-        <v>0.573993</v>
+        <v>0.320098</v>
       </c>
       <c r="F167" s="3">
-        <v>163.057</v>
+        <v>7.74036</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168" s="3">
-        <v>161.0</v>
+        <v>91.0</v>
       </c>
       <c r="D168" s="3">
-        <v>164.447</v>
+        <v>7.57228</v>
       </c>
       <c r="E168" s="3">
-        <v>0.561024</v>
+        <v>0.270793</v>
       </c>
       <c r="F168" s="3">
-        <v>165.008</v>
+        <v>7.84307</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C169" s="3">
-        <v>183.0</v>
+        <v>99.0</v>
       </c>
       <c r="D169" s="3">
-        <v>161.515</v>
+        <v>7.74165</v>
       </c>
       <c r="E169" s="3">
-        <v>0.690988</v>
+        <v>0.358</v>
       </c>
       <c r="F169" s="3">
-        <v>162.206</v>
+        <v>8.09966</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C170" s="3">
-        <v>169.0</v>
+        <v>91.0</v>
       </c>
       <c r="D170" s="3">
-        <v>165.418</v>
+        <v>7.47891</v>
       </c>
       <c r="E170" s="3">
-        <v>0.545377</v>
+        <v>0.311401</v>
       </c>
       <c r="F170" s="3">
-        <v>165.963</v>
+        <v>7.79031</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C171" s="3">
-        <v>178.0</v>
+        <v>91.0</v>
       </c>
       <c r="D171" s="3">
-        <v>167.808</v>
+        <v>7.72737</v>
       </c>
       <c r="E171" s="3">
-        <v>0.512473</v>
+        <v>0.318007</v>
       </c>
       <c r="F171" s="3">
-        <v>168.321</v>
+        <v>8.04538</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C172" s="3">
-        <v>168.0</v>
+        <v>90.0</v>
       </c>
       <c r="D172" s="3">
-        <v>168.262</v>
+        <v>7.90467</v>
       </c>
       <c r="E172" s="3">
-        <v>0.492148</v>
+        <v>0.329961</v>
       </c>
       <c r="F172" s="3">
-        <v>168.754</v>
+        <v>8.23464</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" s="3">
-        <v>182.0</v>
+        <v>41.0</v>
       </c>
       <c r="D173" s="3">
-        <v>177.85</v>
+        <v>7.62915</v>
       </c>
       <c r="E173" s="3">
-        <v>0.791713</v>
+        <v>0.25045</v>
       </c>
       <c r="F173" s="3">
-        <v>178.642</v>
+        <v>7.8796</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" s="3">
-        <v>193.0</v>
+        <v>36.0</v>
       </c>
       <c r="D174" s="3">
-        <v>179.644</v>
+        <v>7.48317</v>
       </c>
       <c r="E174" s="3">
-        <v>0.743207</v>
+        <v>0.15939</v>
       </c>
       <c r="F174" s="3">
-        <v>180.387</v>
+        <v>7.64256</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175" s="3">
-        <v>169.0</v>
+        <v>44.0</v>
       </c>
       <c r="D175" s="3">
-        <v>182.904</v>
+        <v>7.70511</v>
       </c>
       <c r="E175" s="3">
-        <v>0.711604</v>
+        <v>0.169905</v>
       </c>
       <c r="F175" s="3">
-        <v>183.616</v>
+        <v>7.87502</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C176" s="3">
-        <v>183.0</v>
+        <v>47.0</v>
       </c>
       <c r="D176" s="3">
-        <v>186.928</v>
+        <v>7.29759</v>
       </c>
       <c r="E176" s="3">
-        <v>0.832992</v>
+        <v>0.202845</v>
       </c>
       <c r="F176" s="3">
-        <v>187.761</v>
+        <v>7.50044</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C177" s="3">
-        <v>171.0</v>
+        <v>44.0</v>
       </c>
       <c r="D177" s="3">
-        <v>185.556</v>
+        <v>7.40874</v>
       </c>
       <c r="E177" s="3">
-        <v>0.782445</v>
+        <v>0.231778</v>
       </c>
       <c r="F177" s="3">
-        <v>186.339</v>
+        <v>7.64052</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C178" s="3">
-        <v>195.0</v>
+        <v>51.0</v>
       </c>
       <c r="D178" s="3">
-        <v>186.173</v>
+        <v>7.57626</v>
       </c>
       <c r="E178" s="3">
-        <v>0.733305</v>
+        <v>0.175934</v>
       </c>
       <c r="F178" s="3">
-        <v>186.906</v>
+        <v>7.75219</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C179" s="3">
-        <v>194.0</v>
+        <v>52.0</v>
       </c>
       <c r="D179" s="3">
-        <v>185.425</v>
+        <v>7.36741</v>
       </c>
       <c r="E179" s="3">
-        <v>0.841616</v>
+        <v>0.187037</v>
       </c>
       <c r="F179" s="3">
-        <v>186.266</v>
+        <v>7.55445</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C180" s="3">
-        <v>176.0</v>
+        <v>47.0</v>
       </c>
       <c r="D180" s="3">
-        <v>189.621</v>
+        <v>7.39796</v>
       </c>
       <c r="E180" s="3">
-        <v>0.691172</v>
+        <v>0.23852</v>
       </c>
       <c r="F180" s="3">
-        <v>190.312</v>
+        <v>7.63648</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C181" s="3">
-        <v>183.0</v>
+        <v>54.0</v>
       </c>
       <c r="D181" s="3">
-        <v>187.222</v>
+        <v>7.9059</v>
       </c>
       <c r="E181" s="3">
-        <v>0.772987</v>
+        <v>0.184003</v>
       </c>
       <c r="F181" s="3">
-        <v>187.995</v>
+        <v>8.0899</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C182" s="3">
-        <v>73.0</v>
+        <v>134.0</v>
       </c>
       <c r="D182" s="3">
-        <v>5.78798</v>
+        <v>85.2381</v>
       </c>
       <c r="E182" s="3">
-        <v>0.24661</v>
+        <v>0.516883</v>
       </c>
       <c r="F182" s="3">
-        <v>6.03459</v>
+        <v>85.755</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="3">
-        <v>74.0</v>
+        <v>124.0</v>
       </c>
       <c r="D183" s="3">
-        <v>5.42671</v>
+        <v>87.6772</v>
       </c>
       <c r="E183" s="3">
-        <v>0.219688</v>
+        <v>0.575647</v>
       </c>
       <c r="F183" s="3">
-        <v>5.64639</v>
+        <v>88.2528</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C184" s="3">
-        <v>79.0</v>
+        <v>129.0</v>
       </c>
       <c r="D184" s="3">
-        <v>5.80193</v>
+        <v>86.3414</v>
       </c>
       <c r="E184" s="3">
-        <v>0.224188</v>
+        <v>0.471744</v>
       </c>
       <c r="F184" s="3">
-        <v>6.02612</v>
+        <v>86.8132</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="3">
-        <v>85.0</v>
+        <v>128.0</v>
       </c>
       <c r="D185" s="3">
-        <v>5.58661</v>
+        <v>80.3658</v>
       </c>
       <c r="E185" s="3">
-        <v>0.231958</v>
+        <v>0.502971</v>
       </c>
       <c r="F185" s="3">
-        <v>5.81857</v>
+        <v>80.8688</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C186" s="3">
-        <v>79.0</v>
+        <v>130.0</v>
       </c>
       <c r="D186" s="3">
-        <v>5.94979</v>
+        <v>83.0942</v>
       </c>
       <c r="E186" s="3">
-        <v>0.242244</v>
+        <v>0.475998</v>
       </c>
       <c r="F186" s="3">
-        <v>6.19204</v>
+        <v>83.5702</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C187" s="3">
-        <v>92.0</v>
+        <v>132.0</v>
       </c>
       <c r="D187" s="3">
-        <v>5.48668</v>
+        <v>81.727</v>
       </c>
       <c r="E187" s="3">
-        <v>0.250985</v>
+        <v>0.517422</v>
       </c>
       <c r="F187" s="3">
-        <v>5.73767</v>
+        <v>82.2444</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C188" s="3">
-        <v>90.0</v>
+        <v>142.0</v>
       </c>
       <c r="D188" s="3">
-        <v>5.90055</v>
+        <v>86.182</v>
       </c>
       <c r="E188" s="3">
-        <v>0.263325</v>
+        <v>0.568102</v>
       </c>
       <c r="F188" s="3">
-        <v>6.16387</v>
+        <v>86.7501</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C189" s="3">
-        <v>88.0</v>
+        <v>144.0</v>
       </c>
       <c r="D189" s="3">
-        <v>5.99475</v>
+        <v>80.08</v>
       </c>
       <c r="E189" s="3">
-        <v>0.254482</v>
+        <v>0.566038</v>
       </c>
       <c r="F189" s="3">
-        <v>6.24923</v>
+        <v>80.646</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C190" s="3">
-        <v>91.0</v>
+        <v>141.0</v>
       </c>
       <c r="D190" s="3">
-        <v>5.5141</v>
+        <v>81.1108</v>
       </c>
       <c r="E190" s="3">
-        <v>0.295559</v>
+        <v>0.551777</v>
       </c>
       <c r="F190" s="3">
-        <v>5.80966</v>
+        <v>81.6626</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3">
-        <v>49.0</v>
+        <v>137.0</v>
       </c>
       <c r="D191" s="3">
-        <v>5.38335</v>
+        <v>83.6298</v>
       </c>
       <c r="E191" s="3">
-        <v>0.3069</v>
+        <v>0.438185</v>
       </c>
       <c r="F191" s="3">
-        <v>5.69025</v>
+        <v>84.068</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="3">
-        <v>43.0</v>
+        <v>133.0</v>
       </c>
       <c r="D192" s="3">
-        <v>5.33379</v>
+        <v>86.9093</v>
       </c>
       <c r="E192" s="3">
-        <v>0.208348</v>
+        <v>0.441285</v>
       </c>
       <c r="F192" s="3">
-        <v>5.54214</v>
+        <v>87.3506</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="3">
-        <v>45.0</v>
+        <v>130.0</v>
       </c>
       <c r="D193" s="3">
-        <v>5.74502</v>
+        <v>82.3079</v>
       </c>
       <c r="E193" s="3">
-        <v>0.200863</v>
+        <v>0.428651</v>
       </c>
       <c r="F193" s="3">
-        <v>5.94588</v>
+        <v>82.7366</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="3">
-        <v>59.0</v>
+        <v>130.0</v>
       </c>
       <c r="D194" s="3">
-        <v>5.35892</v>
+        <v>82.5279</v>
       </c>
       <c r="E194" s="3">
-        <v>0.217133</v>
+        <v>0.48792</v>
       </c>
       <c r="F194" s="3">
-        <v>5.57605</v>
+        <v>83.0158</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="3">
-        <v>53.0</v>
+        <v>134.0</v>
       </c>
       <c r="D195" s="3">
-        <v>5.33432</v>
+        <v>79.7363</v>
       </c>
       <c r="E195" s="3">
-        <v>0.248168</v>
+        <v>0.456073</v>
       </c>
       <c r="F195" s="3">
-        <v>5.58249</v>
+        <v>80.1924</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C196" s="3">
-        <v>78.0</v>
+        <v>146.0</v>
       </c>
       <c r="D196" s="3">
-        <v>5.50056</v>
+        <v>82.0115</v>
       </c>
       <c r="E196" s="3">
-        <v>0.264305</v>
+        <v>0.461247</v>
       </c>
       <c r="F196" s="3">
-        <v>5.76487</v>
+        <v>82.4728</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="3">
-        <v>68.0</v>
+        <v>150.0</v>
       </c>
       <c r="D197" s="3">
-        <v>6.40157</v>
+        <v>82.1814</v>
       </c>
       <c r="E197" s="3">
-        <v>0.349897</v>
+        <v>0.606051</v>
       </c>
       <c r="F197" s="3">
-        <v>6.75146</v>
+        <v>82.7875</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="3">
-        <v>84.0</v>
+        <v>147.0</v>
       </c>
       <c r="D198" s="3">
-        <v>6.34501</v>
+        <v>81.5328</v>
       </c>
       <c r="E198" s="3">
-        <v>0.245121</v>
+        <v>0.476956</v>
       </c>
       <c r="F198" s="3">
-        <v>6.59013</v>
+        <v>82.0098</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="3">
-        <v>66.0</v>
+        <v>150.0</v>
       </c>
       <c r="D199" s="3">
-        <v>5.72412</v>
+        <v>83.7293</v>
       </c>
       <c r="E199" s="3">
-        <v>0.256165</v>
+        <v>0.479675</v>
       </c>
       <c r="F199" s="3">
-        <v>5.98028</v>
+        <v>84.209</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C200" s="3">
-        <v>67.0</v>
+        <v>128.0</v>
       </c>
       <c r="D200" s="3">
-        <v>5.13217</v>
+        <v>83.2006</v>
       </c>
       <c r="E200" s="3">
-        <v>0.243019</v>
+        <v>0.474938</v>
       </c>
       <c r="F200" s="3">
-        <v>5.37519</v>
+        <v>83.6755</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C201" s="3">
-        <v>70.0</v>
+        <v>128.0</v>
       </c>
       <c r="D201" s="3">
-        <v>5.64089</v>
+        <v>84.3903</v>
       </c>
       <c r="E201" s="3">
-        <v>0.19146</v>
+        <v>0.41958</v>
       </c>
       <c r="F201" s="3">
-        <v>5.83235</v>
+        <v>84.8099</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C202" s="3">
-        <v>72.0</v>
+        <v>126.0</v>
       </c>
       <c r="D202" s="3">
-        <v>5.46139</v>
+        <v>83.4068</v>
       </c>
       <c r="E202" s="3">
-        <v>0.240994</v>
+        <v>0.413535</v>
       </c>
       <c r="F202" s="3">
-        <v>5.70239</v>
+        <v>83.8203</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C203" s="3">
-        <v>84.0</v>
+        <v>118.0</v>
       </c>
       <c r="D203" s="3">
-        <v>5.96554</v>
+        <v>83.2033</v>
       </c>
       <c r="E203" s="3">
-        <v>0.196958</v>
+        <v>0.428565</v>
       </c>
       <c r="F203" s="3">
-        <v>6.1625</v>
+        <v>83.6319</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C204" s="3">
-        <v>91.0</v>
+        <v>129.0</v>
       </c>
       <c r="D204" s="3">
-        <v>5.20818</v>
+        <v>78.9361</v>
       </c>
       <c r="E204" s="3">
-        <v>0.23566</v>
+        <v>0.451874</v>
       </c>
       <c r="F204" s="3">
-        <v>5.44384</v>
+        <v>79.388</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C205" s="3">
-        <v>101.0</v>
+        <v>131.0</v>
       </c>
       <c r="D205" s="3">
-        <v>5.58702</v>
+        <v>81.5423</v>
       </c>
       <c r="E205" s="3">
-        <v>0.325258</v>
+        <v>0.473464</v>
       </c>
       <c r="F205" s="3">
-        <v>5.91228</v>
+        <v>82.0158</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C206" s="3">
-        <v>92.0</v>
+        <v>136.0</v>
       </c>
       <c r="D206" s="3">
-        <v>5.6779</v>
+        <v>84.8308</v>
       </c>
       <c r="E206" s="3">
-        <v>0.254576</v>
+        <v>0.482421</v>
       </c>
       <c r="F206" s="3">
-        <v>5.93247</v>
+        <v>85.3132</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="3">
-        <v>93.0</v>
+        <v>136.0</v>
       </c>
       <c r="D207" s="3">
-        <v>5.59204</v>
+        <v>83.8684</v>
       </c>
       <c r="E207" s="3">
-        <v>0.245721</v>
+        <v>0.500907</v>
       </c>
       <c r="F207" s="3">
-        <v>5.83776</v>
+        <v>84.3693</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C208" s="3">
-        <v>93.0</v>
+        <v>143.0</v>
       </c>
       <c r="D208" s="3">
-        <v>6.06375</v>
+        <v>79.9954</v>
       </c>
       <c r="E208" s="3">
-        <v>0.262378</v>
+        <v>0.490659</v>
       </c>
       <c r="F208" s="3">
-        <v>6.32613</v>
+        <v>80.4861</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C209" s="3">
-        <v>42.0</v>
+        <v>123.0</v>
       </c>
       <c r="D209" s="3">
-        <v>5.10939</v>
+        <v>81.135</v>
       </c>
       <c r="E209" s="3">
-        <v>0.220577</v>
+        <v>0.453434</v>
       </c>
       <c r="F209" s="3">
-        <v>5.32997</v>
+        <v>81.5884</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C210" s="3">
-        <v>36.0</v>
+        <v>128.0</v>
       </c>
       <c r="D210" s="3">
-        <v>5.389</v>
+        <v>73.4452</v>
       </c>
       <c r="E210" s="3">
-        <v>0.183891</v>
+        <v>0.44494</v>
       </c>
       <c r="F210" s="3">
-        <v>5.57289</v>
+        <v>73.8902</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C211" s="3">
-        <v>44.0</v>
+        <v>128.0</v>
       </c>
       <c r="D211" s="3">
-        <v>5.52485</v>
+        <v>70.2226</v>
       </c>
       <c r="E211" s="3">
-        <v>0.162892</v>
+        <v>0.434845</v>
       </c>
       <c r="F211" s="3">
-        <v>5.68774</v>
+        <v>70.6574</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C212" s="3">
-        <v>47.0</v>
+        <v>121.0</v>
       </c>
       <c r="D212" s="3">
-        <v>5.71991</v>
+        <v>78.2035</v>
       </c>
       <c r="E212" s="3">
-        <v>0.159061</v>
+        <v>0.45535</v>
       </c>
       <c r="F212" s="3">
-        <v>5.87897</v>
+        <v>78.6589</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C213" s="3">
-        <v>44.0</v>
+        <v>122.0</v>
       </c>
       <c r="D213" s="3">
-        <v>5.3583</v>
+        <v>74.5526</v>
       </c>
       <c r="E213" s="3">
-        <v>0.156476</v>
+        <v>0.475912</v>
       </c>
       <c r="F213" s="3">
-        <v>5.51478</v>
+        <v>75.0285</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C214" s="3">
-        <v>51.0</v>
+        <v>133.0</v>
       </c>
       <c r="D214" s="3">
-        <v>5.81214</v>
+        <v>73.202</v>
       </c>
       <c r="E214" s="3">
-        <v>0.209263</v>
+        <v>0.560535</v>
       </c>
       <c r="F214" s="3">
-        <v>6.0214</v>
+        <v>73.7625</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="3">
-        <v>52.0</v>
+        <v>144.0</v>
       </c>
       <c r="D215" s="3">
-        <v>5.36287</v>
+        <v>67.8925</v>
       </c>
       <c r="E215" s="3">
-        <v>0.175119</v>
+        <v>0.541911</v>
       </c>
       <c r="F215" s="3">
-        <v>5.53799</v>
+        <v>68.4344</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C216" s="3">
-        <v>48.0</v>
+        <v>145.0</v>
       </c>
       <c r="D216" s="3">
-        <v>5.55864</v>
+        <v>71.5853</v>
       </c>
       <c r="E216" s="3">
-        <v>0.170582</v>
+        <v>0.548289</v>
       </c>
       <c r="F216" s="3">
-        <v>5.72922</v>
+        <v>72.1336</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="3">
-        <v>56.0</v>
+        <v>135.0</v>
       </c>
       <c r="D217" s="3">
-        <v>5.75397</v>
+        <v>71.9972</v>
       </c>
       <c r="E217" s="3">
-        <v>0.169656</v>
+        <v>0.529242</v>
       </c>
       <c r="F217" s="3">
-        <v>5.92362</v>
+        <v>72.5264</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C218" s="3">
-        <v>67.0</v>
+        <v>135.0</v>
       </c>
       <c r="D218" s="3">
-        <v>5.93088</v>
+        <v>61.492</v>
       </c>
       <c r="E218" s="3">
-        <v>0.272203</v>
+        <v>0.601908</v>
       </c>
       <c r="F218" s="3">
-        <v>6.20308</v>
+        <v>62.0939</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C219" s="3">
-        <v>79.0</v>
+        <v>138.0</v>
       </c>
       <c r="D219" s="3">
-        <v>5.48591</v>
+        <v>76.3441</v>
       </c>
       <c r="E219" s="3">
-        <v>0.2445</v>
+        <v>0.492299</v>
       </c>
       <c r="F219" s="3">
-        <v>5.73041</v>
+        <v>76.8364</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C220" s="3">
-        <v>78.0</v>
+        <v>132.0</v>
       </c>
       <c r="D220" s="3">
-        <v>5.65045</v>
+        <v>69.0971</v>
       </c>
       <c r="E220" s="3">
-        <v>0.240964</v>
+        <v>0.599268</v>
       </c>
       <c r="F220" s="3">
-        <v>5.89141</v>
+        <v>69.6964</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C221" s="3">
-        <v>79.0</v>
+        <v>126.0</v>
       </c>
       <c r="D221" s="3">
-        <v>6.12228</v>
+        <v>72.9171</v>
       </c>
       <c r="E221" s="3">
-        <v>0.244516</v>
+        <v>0.497205</v>
       </c>
       <c r="F221" s="3">
-        <v>6.3668</v>
+        <v>73.4143</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C222" s="3">
-        <v>82.0</v>
+        <v>128.0</v>
       </c>
       <c r="D222" s="3">
-        <v>5.90545</v>
+        <v>72.9654</v>
       </c>
       <c r="E222" s="3">
-        <v>0.251697</v>
+        <v>0.559011</v>
       </c>
       <c r="F222" s="3">
-        <v>6.15715</v>
+        <v>73.5244</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C223" s="3">
-        <v>95.0</v>
+        <v>146.0</v>
       </c>
       <c r="D223" s="3">
-        <v>5.61706</v>
+        <v>77.0763</v>
       </c>
       <c r="E223" s="3">
-        <v>0.282009</v>
+        <v>0.537224</v>
       </c>
       <c r="F223" s="3">
-        <v>5.89907</v>
+        <v>77.6135</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C224" s="3">
-        <v>95.0</v>
+        <v>147.0</v>
       </c>
       <c r="D224" s="3">
-        <v>5.66226</v>
+        <v>83.7465</v>
       </c>
       <c r="E224" s="3">
-        <v>0.285561</v>
+        <v>0.658148</v>
       </c>
       <c r="F224" s="3">
-        <v>5.94782</v>
+        <v>84.4047</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C225" s="3">
-        <v>94.0</v>
+        <v>149.0</v>
       </c>
       <c r="D225" s="3">
-        <v>6.33531</v>
+        <v>73.169</v>
       </c>
       <c r="E225" s="3">
-        <v>0.275121</v>
+        <v>0.626009</v>
       </c>
       <c r="F225" s="3">
-        <v>6.61043</v>
+        <v>73.7951</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C226" s="3">
-        <v>94.0</v>
+        <v>148.0</v>
       </c>
       <c r="D226" s="3">
-        <v>6.24731</v>
+        <v>77.3712</v>
       </c>
       <c r="E226" s="3">
-        <v>0.285712</v>
+        <v>0.655636</v>
       </c>
       <c r="F226" s="3">
-        <v>6.53302</v>
+        <v>78.0269</v>
       </c>
     </row>
     <row r="227">
@@ -4679,16 +4878,16 @@
         <v>7</v>
       </c>
       <c r="C227" s="3">
-        <v>137.0</v>
+        <v>63.0</v>
       </c>
       <c r="D227" s="3">
-        <v>55.5314</v>
+        <v>132.839</v>
       </c>
       <c r="E227" s="3">
-        <v>0.380695</v>
+        <v>0.44235</v>
       </c>
       <c r="F227" s="3">
-        <v>55.9121</v>
+        <v>133.281</v>
       </c>
     </row>
     <row r="228">
@@ -4699,16 +4898,16 @@
         <v>7</v>
       </c>
       <c r="C228" s="3">
-        <v>125.0</v>
+        <v>64.0</v>
       </c>
       <c r="D228" s="3">
-        <v>55.4234</v>
+        <v>122.892</v>
       </c>
       <c r="E228" s="3">
-        <v>0.317704</v>
+        <v>0.390403</v>
       </c>
       <c r="F228" s="3">
-        <v>55.7411</v>
+        <v>123.282</v>
       </c>
     </row>
     <row r="229">
@@ -4719,16 +4918,16 @@
         <v>7</v>
       </c>
       <c r="C229" s="3">
-        <v>129.0</v>
+        <v>60.0</v>
       </c>
       <c r="D229" s="3">
-        <v>54.1357</v>
+        <v>106.29</v>
       </c>
       <c r="E229" s="3">
-        <v>0.302265</v>
+        <v>0.378675</v>
       </c>
       <c r="F229" s="3">
-        <v>54.438</v>
+        <v>106.669</v>
       </c>
     </row>
     <row r="230">
@@ -4739,16 +4938,16 @@
         <v>7</v>
       </c>
       <c r="C230" s="3">
-        <v>129.0</v>
+        <v>65.0</v>
       </c>
       <c r="D230" s="3">
-        <v>55.0567</v>
+        <v>108.342</v>
       </c>
       <c r="E230" s="3">
-        <v>0.370968</v>
+        <v>0.437419</v>
       </c>
       <c r="F230" s="3">
-        <v>55.4277</v>
+        <v>108.779</v>
       </c>
     </row>
     <row r="231">
@@ -4759,16 +4958,16 @@
         <v>7</v>
       </c>
       <c r="C231" s="3">
-        <v>131.0</v>
+        <v>59.0</v>
       </c>
       <c r="D231" s="3">
-        <v>58.784</v>
+        <v>108.494</v>
       </c>
       <c r="E231" s="3">
-        <v>0.315352</v>
+        <v>0.38748</v>
       </c>
       <c r="F231" s="3">
-        <v>59.0994</v>
+        <v>108.881</v>
       </c>
     </row>
     <row r="232">
@@ -4779,16 +4978,16 @@
         <v>7</v>
       </c>
       <c r="C232" s="3">
-        <v>132.0</v>
+        <v>65.0</v>
       </c>
       <c r="D232" s="3">
-        <v>54.5857</v>
+        <v>107.582</v>
       </c>
       <c r="E232" s="3">
-        <v>0.335483</v>
+        <v>0.440505</v>
       </c>
       <c r="F232" s="3">
-        <v>54.9212</v>
+        <v>108.023</v>
       </c>
     </row>
     <row r="233">
@@ -4799,16 +4998,16 @@
         <v>7</v>
       </c>
       <c r="C233" s="3">
-        <v>142.0</v>
+        <v>64.0</v>
       </c>
       <c r="D233" s="3">
-        <v>54.2701</v>
+        <v>104.07</v>
       </c>
       <c r="E233" s="3">
-        <v>0.375424</v>
+        <v>0.447159</v>
       </c>
       <c r="F233" s="3">
-        <v>54.6455</v>
+        <v>104.517</v>
       </c>
     </row>
     <row r="234">
@@ -4819,16 +5018,16 @@
         <v>7</v>
       </c>
       <c r="C234" s="3">
-        <v>146.0</v>
+        <v>67.0</v>
       </c>
       <c r="D234" s="3">
-        <v>55.5625</v>
+        <v>103.959</v>
       </c>
       <c r="E234" s="3">
-        <v>0.398016</v>
+        <v>0.462225</v>
       </c>
       <c r="F234" s="3">
-        <v>55.9605</v>
+        <v>104.421</v>
       </c>
     </row>
     <row r="235">
@@ -4839,16 +5038,16 @@
         <v>7</v>
       </c>
       <c r="C235" s="3">
-        <v>144.0</v>
+        <v>79.0</v>
       </c>
       <c r="D235" s="3">
-        <v>55.4093</v>
+        <v>109.898</v>
       </c>
       <c r="E235" s="3">
-        <v>0.336525</v>
+        <v>0.509218</v>
       </c>
       <c r="F235" s="3">
-        <v>55.7458</v>
+        <v>110.408</v>
       </c>
     </row>
     <row r="236">
@@ -4859,16 +5058,16 @@
         <v>8</v>
       </c>
       <c r="C236" s="3">
-        <v>141.0</v>
+        <v>86.0</v>
       </c>
       <c r="D236" s="3">
-        <v>55.0859</v>
+        <v>105.147</v>
       </c>
       <c r="E236" s="3">
-        <v>0.331812</v>
+        <v>0.34528</v>
       </c>
       <c r="F236" s="3">
-        <v>55.4178</v>
+        <v>105.492</v>
       </c>
     </row>
     <row r="237">
@@ -4879,16 +5078,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="3">
-        <v>134.0</v>
+        <v>76.0</v>
       </c>
       <c r="D237" s="3">
-        <v>51.0558</v>
+        <v>105.088</v>
       </c>
       <c r="E237" s="3">
-        <v>0.297124</v>
+        <v>0.336888</v>
       </c>
       <c r="F237" s="3">
-        <v>51.3529</v>
+        <v>105.425</v>
       </c>
     </row>
     <row r="238">
@@ -4899,16 +5098,16 @@
         <v>8</v>
       </c>
       <c r="C238" s="3">
-        <v>131.0</v>
+        <v>72.0</v>
       </c>
       <c r="D238" s="3">
-        <v>50.6251</v>
+        <v>105.419</v>
       </c>
       <c r="E238" s="3">
-        <v>0.343276</v>
+        <v>0.325065</v>
       </c>
       <c r="F238" s="3">
-        <v>50.9684</v>
+        <v>105.745</v>
       </c>
     </row>
     <row r="239">
@@ -4919,16 +5118,16 @@
         <v>8</v>
       </c>
       <c r="C239" s="3">
-        <v>130.0</v>
+        <v>83.0</v>
       </c>
       <c r="D239" s="3">
-        <v>51.9289</v>
+        <v>104.845</v>
       </c>
       <c r="E239" s="3">
-        <v>0.308051</v>
+        <v>0.328721</v>
       </c>
       <c r="F239" s="3">
-        <v>52.237</v>
+        <v>105.174</v>
       </c>
     </row>
     <row r="240">
@@ -4939,16 +5138,16 @@
         <v>8</v>
       </c>
       <c r="C240" s="3">
-        <v>134.0</v>
+        <v>69.0</v>
       </c>
       <c r="D240" s="3">
-        <v>51.0479</v>
+        <v>107.018</v>
       </c>
       <c r="E240" s="3">
-        <v>0.303641</v>
+        <v>0.37302</v>
       </c>
       <c r="F240" s="3">
-        <v>51.3516</v>
+        <v>107.391</v>
       </c>
     </row>
     <row r="241">
@@ -4959,16 +5158,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="3">
-        <v>146.0</v>
+        <v>75.0</v>
       </c>
       <c r="D241" s="3">
-        <v>51.3352</v>
+        <v>109.482</v>
       </c>
       <c r="E241" s="3">
-        <v>0.296243</v>
+        <v>0.367726</v>
       </c>
       <c r="F241" s="3">
-        <v>51.6314</v>
+        <v>109.85</v>
       </c>
     </row>
     <row r="242">
@@ -4979,16 +5178,16 @@
         <v>8</v>
       </c>
       <c r="C242" s="3">
-        <v>150.0</v>
+        <v>76.0</v>
       </c>
       <c r="D242" s="3">
-        <v>53.0521</v>
+        <v>102.174</v>
       </c>
       <c r="E242" s="3">
-        <v>0.309131</v>
+        <v>0.466673</v>
       </c>
       <c r="F242" s="3">
-        <v>53.3612</v>
+        <v>102.641</v>
       </c>
     </row>
     <row r="243">
@@ -4999,16 +5198,16 @@
         <v>8</v>
       </c>
       <c r="C243" s="3">
-        <v>148.0</v>
+        <v>69.0</v>
       </c>
       <c r="D243" s="3">
-        <v>51.6477</v>
+        <v>104.953</v>
       </c>
       <c r="E243" s="3">
-        <v>0.321606</v>
+        <v>0.400084</v>
       </c>
       <c r="F243" s="3">
-        <v>51.9693</v>
+        <v>105.353</v>
       </c>
     </row>
     <row r="244">
@@ -5019,16 +5218,16 @@
         <v>8</v>
       </c>
       <c r="C244" s="3">
-        <v>152.0</v>
+        <v>87.0</v>
       </c>
       <c r="D244" s="3">
-        <v>50.8746</v>
+        <v>105.27</v>
       </c>
       <c r="E244" s="3">
-        <v>0.326015</v>
+        <v>0.408654</v>
       </c>
       <c r="F244" s="3">
-        <v>51.2006</v>
+        <v>105.679</v>
       </c>
     </row>
     <row r="245">
@@ -5036,19 +5235,19 @@
         <v>14</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C245" s="3">
-        <v>131.0</v>
+        <v>64.0</v>
       </c>
       <c r="D245" s="3">
-        <v>50.4666</v>
+        <v>104.938</v>
       </c>
       <c r="E245" s="3">
-        <v>0.318627</v>
+        <v>0.428824</v>
       </c>
       <c r="F245" s="3">
-        <v>50.7853</v>
+        <v>105.367</v>
       </c>
     </row>
     <row r="246">
@@ -5056,19 +5255,19 @@
         <v>14</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C246" s="3">
-        <v>129.0</v>
+        <v>70.0</v>
       </c>
       <c r="D246" s="3">
-        <v>53.7928</v>
+        <v>106.547</v>
       </c>
       <c r="E246" s="3">
-        <v>0.27451</v>
+        <v>0.375138</v>
       </c>
       <c r="F246" s="3">
-        <v>54.0673</v>
+        <v>106.922</v>
       </c>
     </row>
     <row r="247">
@@ -5076,19 +5275,19 @@
         <v>14</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C247" s="3">
-        <v>127.0</v>
+        <v>62.0</v>
       </c>
       <c r="D247" s="3">
-        <v>51.6139</v>
+        <v>104.65</v>
       </c>
       <c r="E247" s="3">
-        <v>0.298484</v>
+        <v>0.371707</v>
       </c>
       <c r="F247" s="3">
-        <v>51.9123</v>
+        <v>105.022</v>
       </c>
     </row>
     <row r="248">
@@ -5096,19 +5295,19 @@
         <v>14</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C248" s="3">
-        <v>117.0</v>
+        <v>65.0</v>
       </c>
       <c r="D248" s="3">
-        <v>51.9583</v>
+        <v>107.364</v>
       </c>
       <c r="E248" s="3">
-        <v>0.272212</v>
+        <v>0.365395</v>
       </c>
       <c r="F248" s="3">
-        <v>52.2305</v>
+        <v>107.73</v>
       </c>
     </row>
     <row r="249">
@@ -5116,19 +5315,19 @@
         <v>14</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C249" s="3">
-        <v>130.0</v>
+        <v>59.0</v>
       </c>
       <c r="D249" s="3">
-        <v>52.539</v>
+        <v>103.966</v>
       </c>
       <c r="E249" s="3">
-        <v>0.285717</v>
+        <v>0.363733</v>
       </c>
       <c r="F249" s="3">
-        <v>52.8248</v>
+        <v>104.33</v>
       </c>
     </row>
     <row r="250">
@@ -5136,19 +5335,19 @@
         <v>14</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C250" s="3">
-        <v>131.0</v>
+        <v>60.0</v>
       </c>
       <c r="D250" s="3">
-        <v>51.9308</v>
+        <v>104.334</v>
       </c>
       <c r="E250" s="3">
-        <v>0.309903</v>
+        <v>0.374524</v>
       </c>
       <c r="F250" s="3">
-        <v>52.2407</v>
+        <v>104.708</v>
       </c>
     </row>
     <row r="251">
@@ -5156,19 +5355,19 @@
         <v>14</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C251" s="3">
-        <v>137.0</v>
+        <v>64.0</v>
       </c>
       <c r="D251" s="3">
-        <v>52.9857</v>
+        <v>105.166</v>
       </c>
       <c r="E251" s="3">
-        <v>0.32533</v>
+        <v>0.430415</v>
       </c>
       <c r="F251" s="3">
-        <v>53.311</v>
+        <v>105.597</v>
       </c>
     </row>
     <row r="252">
@@ -5176,19 +5375,19 @@
         <v>14</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C252" s="3">
-        <v>135.0</v>
+        <v>65.0</v>
       </c>
       <c r="D252" s="3">
-        <v>55.024</v>
+        <v>106.144</v>
       </c>
       <c r="E252" s="3">
-        <v>0.307569</v>
+        <v>0.433009</v>
       </c>
       <c r="F252" s="3">
-        <v>55.3316</v>
+        <v>106.577</v>
       </c>
     </row>
     <row r="253">
@@ -5196,1279 +5395,19 @@
         <v>14</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C253" s="3">
-        <v>145.0</v>
+        <v>79.0</v>
       </c>
       <c r="D253" s="3">
-        <v>57.9219</v>
+        <v>111.815</v>
       </c>
       <c r="E253" s="3">
-        <v>0.309762</v>
+        <v>0.484953</v>
       </c>
       <c r="F253" s="3">
-        <v>58.2317</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C254" s="3">
-        <v>126.0</v>
-      </c>
-      <c r="D254" s="3">
-        <v>51.3349</v>
-      </c>
-      <c r="E254" s="3">
-        <v>0.358497</v>
-      </c>
-      <c r="F254" s="3">
-        <v>51.6934</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C255" s="3">
-        <v>129.0</v>
-      </c>
-      <c r="D255" s="3">
-        <v>52.7055</v>
-      </c>
-      <c r="E255" s="3">
-        <v>0.307654</v>
-      </c>
-      <c r="F255" s="3">
-        <v>53.0131</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C256" s="3">
-        <v>127.0</v>
-      </c>
-      <c r="D256" s="3">
-        <v>51.9953</v>
-      </c>
-      <c r="E256" s="3">
-        <v>0.318728</v>
-      </c>
-      <c r="F256" s="3">
-        <v>52.3141</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C257" s="3">
-        <v>121.0</v>
-      </c>
-      <c r="D257" s="3">
-        <v>53.0079</v>
-      </c>
-      <c r="E257" s="3">
-        <v>0.314901</v>
-      </c>
-      <c r="F257" s="3">
-        <v>53.3228</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C258" s="3">
-        <v>122.0</v>
-      </c>
-      <c r="D258" s="3">
-        <v>53.4864</v>
-      </c>
-      <c r="E258" s="3">
-        <v>0.342026</v>
-      </c>
-      <c r="F258" s="3">
-        <v>53.8284</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C259" s="3">
-        <v>133.0</v>
-      </c>
-      <c r="D259" s="3">
-        <v>52.1206</v>
-      </c>
-      <c r="E259" s="3">
-        <v>0.333229</v>
-      </c>
-      <c r="F259" s="3">
-        <v>52.4538</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C260" s="3">
-        <v>144.0</v>
-      </c>
-      <c r="D260" s="3">
-        <v>50.7377</v>
-      </c>
-      <c r="E260" s="3">
-        <v>0.344146</v>
-      </c>
-      <c r="F260" s="3">
-        <v>51.0818</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C261" s="3">
-        <v>147.0</v>
-      </c>
-      <c r="D261" s="3">
-        <v>56.5505</v>
-      </c>
-      <c r="E261" s="3">
-        <v>0.354063</v>
-      </c>
-      <c r="F261" s="3">
-        <v>56.9046</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C262" s="3">
-        <v>138.0</v>
-      </c>
-      <c r="D262" s="3">
-        <v>55.7902</v>
-      </c>
-      <c r="E262" s="3">
-        <v>0.344981</v>
-      </c>
-      <c r="F262" s="3">
-        <v>56.1352</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" s="3">
-        <v>138.0</v>
-      </c>
-      <c r="D263" s="3">
-        <v>50.8336</v>
-      </c>
-      <c r="E263" s="3">
-        <v>0.34201</v>
-      </c>
-      <c r="F263" s="3">
-        <v>51.1756</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C264" s="3">
-        <v>138.0</v>
-      </c>
-      <c r="D264" s="3">
-        <v>53.7569</v>
-      </c>
-      <c r="E264" s="3">
-        <v>0.30342</v>
-      </c>
-      <c r="F264" s="3">
-        <v>54.0603</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C265" s="3">
-        <v>133.0</v>
-      </c>
-      <c r="D265" s="3">
-        <v>52.9572</v>
-      </c>
-      <c r="E265" s="3">
-        <v>0.302333</v>
-      </c>
-      <c r="F265" s="3">
-        <v>53.2596</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C266" s="3">
-        <v>127.0</v>
-      </c>
-      <c r="D266" s="3">
-        <v>51.681</v>
-      </c>
-      <c r="E266" s="3">
-        <v>0.340893</v>
-      </c>
-      <c r="F266" s="3">
-        <v>52.0219</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C267" s="3">
-        <v>129.0</v>
-      </c>
-      <c r="D267" s="3">
-        <v>52.1445</v>
-      </c>
-      <c r="E267" s="3">
-        <v>0.352813</v>
-      </c>
-      <c r="F267" s="3">
-        <v>52.4973</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C268" s="3">
-        <v>146.0</v>
-      </c>
-      <c r="D268" s="3">
-        <v>50.6756</v>
-      </c>
-      <c r="E268" s="3">
-        <v>0.318337</v>
-      </c>
-      <c r="F268" s="3">
-        <v>50.9939</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C269" s="3">
-        <v>147.0</v>
-      </c>
-      <c r="D269" s="3">
-        <v>50.9378</v>
-      </c>
-      <c r="E269" s="3">
-        <v>0.353073</v>
-      </c>
-      <c r="F269" s="3">
-        <v>51.2909</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C270" s="3">
-        <v>151.0</v>
-      </c>
-      <c r="D270" s="3">
-        <v>51.8991</v>
-      </c>
-      <c r="E270" s="3">
-        <v>0.351435</v>
-      </c>
-      <c r="F270" s="3">
-        <v>52.2505</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C271" s="3">
-        <v>150.0</v>
-      </c>
-      <c r="D271" s="3">
-        <v>51.1037</v>
-      </c>
-      <c r="E271" s="3">
-        <v>0.351335</v>
-      </c>
-      <c r="F271" s="3">
-        <v>51.455</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C272" s="3">
-        <v>134.0</v>
-      </c>
-      <c r="D272" s="3">
-        <v>58.8718</v>
-      </c>
-      <c r="E272" s="3">
-        <v>0.416195</v>
-      </c>
-      <c r="F272" s="3">
-        <v>59.288</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C273" s="3">
-        <v>134.0</v>
-      </c>
-      <c r="D273" s="3">
-        <v>57.4704</v>
-      </c>
-      <c r="E273" s="3">
-        <v>0.362505</v>
-      </c>
-      <c r="F273" s="3">
-        <v>57.8329</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C274" s="3">
-        <v>130.0</v>
-      </c>
-      <c r="D274" s="3">
-        <v>56.823</v>
-      </c>
-      <c r="E274" s="3">
-        <v>0.352978</v>
-      </c>
-      <c r="F274" s="3">
-        <v>57.176</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C275" s="3">
-        <v>136.0</v>
-      </c>
-      <c r="D275" s="3">
-        <v>54.1348</v>
-      </c>
-      <c r="E275" s="3">
-        <v>0.369908</v>
-      </c>
-      <c r="F275" s="3">
-        <v>54.5048</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C276" s="3">
-        <v>137.0</v>
-      </c>
-      <c r="D276" s="3">
-        <v>56.9982</v>
-      </c>
-      <c r="E276" s="3">
-        <v>0.361457</v>
-      </c>
-      <c r="F276" s="3">
-        <v>57.3597</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C277" s="3">
-        <v>147.0</v>
-      </c>
-      <c r="D277" s="3">
-        <v>56.402</v>
-      </c>
-      <c r="E277" s="3">
-        <v>0.367532</v>
-      </c>
-      <c r="F277" s="3">
-        <v>56.7695</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C278" s="3">
-        <v>147.0</v>
-      </c>
-      <c r="D278" s="3">
-        <v>57.039</v>
-      </c>
-      <c r="E278" s="3">
-        <v>0.384394</v>
-      </c>
-      <c r="F278" s="3">
-        <v>57.4234</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C279" s="3">
-        <v>154.0</v>
-      </c>
-      <c r="D279" s="3">
-        <v>56.0853</v>
-      </c>
-      <c r="E279" s="3">
-        <v>0.36898</v>
-      </c>
-      <c r="F279" s="3">
-        <v>56.4543</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C280" s="3">
-        <v>151.0</v>
-      </c>
-      <c r="D280" s="3">
-        <v>55.7404</v>
-      </c>
-      <c r="E280" s="3">
-        <v>0.392862</v>
-      </c>
-      <c r="F280" s="3">
-        <v>56.1333</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C281" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="D281" s="3">
-        <v>67.5295</v>
-      </c>
-      <c r="E281" s="3">
-        <v>0.309847</v>
-      </c>
-      <c r="F281" s="3">
-        <v>67.8393</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C282" s="3">
-        <v>66.0</v>
-      </c>
-      <c r="D282" s="3">
-        <v>66.615</v>
-      </c>
-      <c r="E282" s="3">
-        <v>0.325138</v>
-      </c>
-      <c r="F282" s="3">
-        <v>66.9402</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="D283" s="3">
-        <v>68.2604</v>
-      </c>
-      <c r="E283" s="3">
-        <v>0.266441</v>
-      </c>
-      <c r="F283" s="3">
-        <v>68.5268</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C284" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="D284" s="3">
-        <v>68.4144</v>
-      </c>
-      <c r="E284" s="3">
-        <v>0.26727</v>
-      </c>
-      <c r="F284" s="3">
-        <v>68.6816</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C285" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="D285" s="3">
-        <v>68.5429</v>
-      </c>
-      <c r="E285" s="3">
-        <v>0.257702</v>
-      </c>
-      <c r="F285" s="3">
-        <v>68.8006</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C286" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="D286" s="3">
-        <v>68.8891</v>
-      </c>
-      <c r="E286" s="3">
-        <v>0.285375</v>
-      </c>
-      <c r="F286" s="3">
-        <v>69.1744</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C287" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="D287" s="3">
-        <v>67.2031</v>
-      </c>
-      <c r="E287" s="3">
-        <v>0.268886</v>
-      </c>
-      <c r="F287" s="3">
-        <v>67.472</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="D288" s="3">
-        <v>69.566</v>
-      </c>
-      <c r="E288" s="3">
-        <v>0.310779</v>
-      </c>
-      <c r="F288" s="3">
-        <v>69.8768</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="D289" s="3">
-        <v>66.5799</v>
-      </c>
-      <c r="E289" s="3">
-        <v>0.377825</v>
-      </c>
-      <c r="F289" s="3">
-        <v>66.9577</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C290" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="D290" s="3">
-        <v>61.4306</v>
-      </c>
-      <c r="E290" s="3">
-        <v>0.33048</v>
-      </c>
-      <c r="F290" s="3">
-        <v>61.7611</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C291" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="D291" s="3">
-        <v>63.3504</v>
-      </c>
-      <c r="E291" s="3">
-        <v>0.252078</v>
-      </c>
-      <c r="F291" s="3">
-        <v>63.6024</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C292" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="D292" s="3">
-        <v>65.197</v>
-      </c>
-      <c r="E292" s="3">
-        <v>0.248095</v>
-      </c>
-      <c r="F292" s="3">
-        <v>65.4451</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C293" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="D293" s="3">
-        <v>65.2598</v>
-      </c>
-      <c r="E293" s="3">
-        <v>0.264288</v>
-      </c>
-      <c r="F293" s="3">
-        <v>65.5241</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C294" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="D294" s="3">
-        <v>65.3639</v>
-      </c>
-      <c r="E294" s="3">
-        <v>0.259556</v>
-      </c>
-      <c r="F294" s="3">
-        <v>65.6235</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C295" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="D295" s="3">
-        <v>65.822</v>
-      </c>
-      <c r="E295" s="3">
-        <v>0.290541</v>
-      </c>
-      <c r="F295" s="3">
-        <v>66.1125</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C296" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="D296" s="3">
-        <v>66.3765</v>
-      </c>
-      <c r="E296" s="3">
-        <v>0.250694</v>
-      </c>
-      <c r="F296" s="3">
-        <v>66.6272</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C297" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="D297" s="3">
-        <v>65.4053</v>
-      </c>
-      <c r="E297" s="3">
-        <v>0.30689</v>
-      </c>
-      <c r="F297" s="3">
-        <v>65.7122</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C298" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="D298" s="3">
-        <v>66.4541</v>
-      </c>
-      <c r="E298" s="3">
-        <v>0.317147</v>
-      </c>
-      <c r="F298" s="3">
-        <v>66.7712</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C299" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="D299" s="3">
-        <v>61.7045</v>
-      </c>
-      <c r="E299" s="3">
-        <v>0.321943</v>
-      </c>
-      <c r="F299" s="3">
-        <v>62.0264</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C300" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="D300" s="3">
-        <v>62.8436</v>
-      </c>
-      <c r="E300" s="3">
-        <v>0.2662</v>
-      </c>
-      <c r="F300" s="3">
-        <v>63.1098</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C301" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="D301" s="3">
-        <v>68.8447</v>
-      </c>
-      <c r="E301" s="3">
-        <v>0.267498</v>
-      </c>
-      <c r="F301" s="3">
-        <v>69.1122</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C302" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="D302" s="3">
-        <v>66.4812</v>
-      </c>
-      <c r="E302" s="3">
-        <v>0.271531</v>
-      </c>
-      <c r="F302" s="3">
-        <v>66.7527</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C303" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="D303" s="3">
-        <v>68.6926</v>
-      </c>
-      <c r="E303" s="3">
-        <v>0.278588</v>
-      </c>
-      <c r="F303" s="3">
-        <v>68.9712</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C304" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="D304" s="3">
-        <v>72.001</v>
-      </c>
-      <c r="E304" s="3">
-        <v>0.284066</v>
-      </c>
-      <c r="F304" s="3">
-        <v>72.285</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C305" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="D305" s="3">
-        <v>69.5099</v>
-      </c>
-      <c r="E305" s="3">
-        <v>0.283226</v>
-      </c>
-      <c r="F305" s="3">
-        <v>69.7932</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C306" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="D306" s="3">
-        <v>69.7191</v>
-      </c>
-      <c r="E306" s="3">
-        <v>0.323792</v>
-      </c>
-      <c r="F306" s="3">
-        <v>70.0429</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C307" s="3">
-        <v>79.0</v>
-      </c>
-      <c r="D307" s="3">
-        <v>69.7485</v>
-      </c>
-      <c r="E307" s="3">
-        <v>0.277103</v>
-      </c>
-      <c r="F307" s="3">
-        <v>70.0256</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C308" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="D308" s="3">
-        <v>60.3474</v>
-      </c>
-      <c r="E308" s="3">
-        <v>0.323292</v>
-      </c>
-      <c r="F308" s="3">
-        <v>60.6707</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C309" s="3">
-        <v>81.0</v>
-      </c>
-      <c r="D309" s="3">
-        <v>62.6045</v>
-      </c>
-      <c r="E309" s="3">
-        <v>0.278373</v>
-      </c>
-      <c r="F309" s="3">
-        <v>62.8829</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C310" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="D310" s="3">
-        <v>69.1201</v>
-      </c>
-      <c r="E310" s="3">
-        <v>0.26856</v>
-      </c>
-      <c r="F310" s="3">
-        <v>69.3887</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C311" s="3">
-        <v>94.0</v>
-      </c>
-      <c r="D311" s="3">
-        <v>68.3618</v>
-      </c>
-      <c r="E311" s="3">
-        <v>0.302066</v>
-      </c>
-      <c r="F311" s="3">
-        <v>68.6639</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C312" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="D312" s="3">
-        <v>69.5902</v>
-      </c>
-      <c r="E312" s="3">
-        <v>0.308458</v>
-      </c>
-      <c r="F312" s="3">
-        <v>69.8986</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C313" s="3">
-        <v>81.0</v>
-      </c>
-      <c r="D313" s="3">
-        <v>68.7115</v>
-      </c>
-      <c r="E313" s="3">
-        <v>0.319843</v>
-      </c>
-      <c r="F313" s="3">
-        <v>69.0313</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C314" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="D314" s="3">
-        <v>65.6562</v>
-      </c>
-      <c r="E314" s="3">
-        <v>0.337139</v>
-      </c>
-      <c r="F314" s="3">
-        <v>65.9933</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C315" s="3">
-        <v>102.0</v>
-      </c>
-      <c r="D315" s="3">
-        <v>69.512</v>
-      </c>
-      <c r="E315" s="3">
-        <v>0.326558</v>
-      </c>
-      <c r="F315" s="3">
-        <v>69.8386</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C316" s="3">
-        <v>104.0</v>
-      </c>
-      <c r="D316" s="3">
-        <v>69.7558</v>
-      </c>
-      <c r="E316" s="3">
-        <v>0.333709</v>
-      </c>
-      <c r="F316" s="3">
-        <v>70.0895</v>
+        <v>112.3</v>
       </c>
     </row>
   </sheetData>
